--- a/excelDocs/paradoxRift/pokemon_data.xlsx
+++ b/excelDocs/paradoxRift/pokemon_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2370" yWindow="2985" windowWidth="25260" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25665" yWindow="2085" windowWidth="25260" windowHeight="11880" tabRatio="797" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,9 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -141,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -170,22 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -555,7 +541,7 @@
   </sheetPr>
   <dimension ref="A1:AY1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -573,8 +559,8 @@
     <col width="24" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
     <col width="24" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="20.4" customWidth="1" min="13" max="13"/>
-    <col width="28.8" customWidth="1" min="14" max="14"/>
+    <col width="20.42578125" customWidth="1" min="13" max="13"/>
+    <col width="28.85546875" customWidth="1" min="14" max="14"/>
     <col width="13.85546875" customWidth="1" min="15" max="15"/>
     <col width="33.5703125" customWidth="1" min="16" max="16"/>
     <col width="26.85546875" customWidth="1" min="17" max="17"/>
@@ -587,7 +573,7 @@
     <col width="24" customWidth="1" min="48" max="48"/>
     <col width="20.42578125" customWidth="1" min="49" max="49"/>
     <col width="28.85546875" customWidth="1" min="50" max="50"/>
-    <col width="16.8" customWidth="1" min="51" max="51"/>
+    <col width="16.85546875" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,7 +840,7 @@
       <c r="D4" s="3" t="n">
         <v>5.77</v>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="n"/>
       <c r="F4" s="3">
         <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 0.73878, 1)))</f>
         <v/>
@@ -913,7 +899,7 @@
       <c r="D5" s="3" t="n">
         <v>0.59</v>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="n"/>
       <c r="F5" s="3">
         <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 0.73878, 1)))</f>
         <v/>
@@ -972,7 +958,7 @@
       <c r="D6" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="n"/>
       <c r="F6" s="3">
         <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 0.73878, 1)))</f>
         <v/>
@@ -1092,7 +1078,7 @@
       <c r="D8" s="3" t="n">
         <v>7.19</v>
       </c>
-      <c r="E8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="n"/>
       <c r="F8" s="3">
         <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 0.73878, 1)))</f>
         <v/>
@@ -1151,7 +1137,7 @@
       <c r="D9" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="E9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="n"/>
       <c r="F9" s="3">
         <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 0.73878, 1)))</f>
         <v/>
@@ -1210,7 +1196,7 @@
       <c r="D10" s="3" t="n">
         <v>2.29</v>
       </c>
-      <c r="E10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="n"/>
       <c r="F10" s="3">
         <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 0.73878, 1)))</f>
         <v/>
@@ -1269,7 +1255,7 @@
       <c r="D11" s="3" t="n">
         <v>43.83</v>
       </c>
-      <c r="E11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="n"/>
       <c r="F11" s="3">
         <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 0.73878, 1)))</f>
         <v/>
@@ -1454,7 +1440,7 @@
       <c r="D14" s="3" t="n">
         <v>0.63</v>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="n"/>
       <c r="F14" s="3">
         <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 0.73878, 1)))</f>
         <v/>
@@ -1510,7 +1496,7 @@
       <c r="D15" s="3" t="n">
         <v>1.69</v>
       </c>
-      <c r="E15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="n"/>
       <c r="F15" s="3">
         <f>IF(B15="common", 4, IF(B15="uncommon", 3, IF(B15="rare", 0.73878, 1)))</f>
         <v/>
@@ -1566,7 +1552,7 @@
       <c r="D16" s="3" t="n">
         <v>2.89</v>
       </c>
-      <c r="E16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="n"/>
       <c r="F16" s="3">
         <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 0.73878, 1)))</f>
         <v/>
@@ -1741,7 +1727,7 @@
       <c r="D19" s="3" t="n">
         <v>5.68</v>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="n"/>
       <c r="F19" s="3">
         <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 0.73878, 1)))</f>
         <v/>
@@ -1797,7 +1783,7 @@
       <c r="D20" s="3" t="n">
         <v>0.57</v>
       </c>
-      <c r="E20" s="3" t="inlineStr"/>
+      <c r="E20" s="3" t="n"/>
       <c r="F20" s="3">
         <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 0.73878, 1)))</f>
         <v/>
@@ -1853,7 +1839,7 @@
       <c r="D21" s="3" t="n">
         <v>1.46</v>
       </c>
-      <c r="E21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="n"/>
       <c r="F21" s="3">
         <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 0.73878, 1)))</f>
         <v/>
@@ -2034,7 +2020,7 @@
       <c r="D24" s="3" t="n">
         <v>7.71</v>
       </c>
-      <c r="E24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3">
         <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 0.73878, 1)))</f>
         <v/>
@@ -2322,7 +2308,7 @@
       <c r="D29" s="3" t="n">
         <v>0.48</v>
       </c>
-      <c r="E29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="n"/>
       <c r="F29" s="3">
         <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 0.73878, 1)))</f>
         <v/>
@@ -2378,7 +2364,7 @@
       <c r="D30" s="3" t="n">
         <v>1.68</v>
       </c>
-      <c r="E30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="n"/>
       <c r="F30" s="3">
         <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 0.73878, 1)))</f>
         <v/>
@@ -2492,7 +2478,7 @@
       <c r="D32" s="3" t="n">
         <v>6.56</v>
       </c>
-      <c r="E32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="n"/>
       <c r="F32" s="3">
         <f>IF(B32="common", 4, IF(B32="uncommon", 3, IF(B32="rare", 0.73878, 1)))</f>
         <v/>
@@ -2722,7 +2708,7 @@
       <c r="D36" s="3" t="n">
         <v>3.39</v>
       </c>
-      <c r="E36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="n"/>
       <c r="F36" s="3">
         <f>IF(B36="common", 4, IF(B36="uncommon", 3, IF(B36="rare", 0.73878, 1)))</f>
         <v/>
@@ -2894,7 +2880,7 @@
       <c r="D39" s="3" t="n">
         <v>3.76</v>
       </c>
-      <c r="E39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="n"/>
       <c r="F39" s="3">
         <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 0.73878, 1)))</f>
         <v/>
@@ -3182,7 +3168,7 @@
       <c r="D44" s="3" t="n">
         <v>2.98</v>
       </c>
-      <c r="E44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="n"/>
       <c r="F44" s="3">
         <f>IF(B44="common", 4, IF(B44="uncommon", 3, IF(B44="rare", 0.73878, 1)))</f>
         <v/>
@@ -3644,7 +3630,7 @@
       <c r="D52" s="3" t="n">
         <v>5.53</v>
       </c>
-      <c r="E52" s="3" t="inlineStr"/>
+      <c r="E52" s="3" t="n"/>
       <c r="F52" s="3">
         <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 0.73878, 1)))</f>
         <v/>
@@ -3932,7 +3918,7 @@
       <c r="D57" s="3" t="n">
         <v>4.33</v>
       </c>
-      <c r="E57" s="3" t="inlineStr"/>
+      <c r="E57" s="3" t="n"/>
       <c r="F57" s="3">
         <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 0.73878, 1)))</f>
         <v/>
@@ -4162,7 +4148,7 @@
       <c r="D61" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="E61" s="3" t="inlineStr"/>
+      <c r="E61" s="3" t="n"/>
       <c r="F61" s="3">
         <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 0.73878, 1)))</f>
         <v/>
@@ -4218,7 +4204,7 @@
       <c r="D62" s="3" t="n">
         <v>1.78</v>
       </c>
-      <c r="E62" s="3" t="inlineStr"/>
+      <c r="E62" s="3" t="n"/>
       <c r="F62" s="3">
         <f>IF(B62="common", 4, IF(B62="uncommon", 3, IF(B62="rare", 0.73878, 1)))</f>
         <v/>
@@ -4564,7 +4550,7 @@
       <c r="D68" s="3" t="n">
         <v>8.33</v>
       </c>
-      <c r="E68" s="3" t="inlineStr"/>
+      <c r="E68" s="3" t="n"/>
       <c r="F68" s="3">
         <f>IF(B68="common", 4, IF(B68="uncommon", 3, IF(B68="rare", 0.73878, 1)))</f>
         <v/>
@@ -4620,7 +4606,7 @@
       <c r="D69" s="3" t="n">
         <v>0.76</v>
       </c>
-      <c r="E69" s="3" t="inlineStr"/>
+      <c r="E69" s="3" t="n"/>
       <c r="F69" s="3">
         <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 0.73878, 1)))</f>
         <v/>
@@ -4676,7 +4662,7 @@
       <c r="D70" s="3" t="n">
         <v>5.86</v>
       </c>
-      <c r="E70" s="3" t="inlineStr"/>
+      <c r="E70" s="3" t="n"/>
       <c r="F70" s="3">
         <f>IF(B70="common", 4, IF(B70="uncommon", 3, IF(B70="rare", 0.73878, 1)))</f>
         <v/>
@@ -4732,7 +4718,7 @@
       <c r="D71" s="3" t="n">
         <v>34.59</v>
       </c>
-      <c r="E71" s="3" t="inlineStr"/>
+      <c r="E71" s="3" t="n"/>
       <c r="F71" s="3">
         <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 0.73878, 1)))</f>
         <v/>
@@ -4788,7 +4774,7 @@
       <c r="D72" s="3" t="n">
         <v>10.14</v>
       </c>
-      <c r="E72" s="3" t="inlineStr"/>
+      <c r="E72" s="3" t="n"/>
       <c r="F72" s="3">
         <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 0.73878, 1)))</f>
         <v/>
@@ -4902,7 +4888,7 @@
       <c r="D74" s="3" t="n">
         <v>4.02</v>
       </c>
-      <c r="E74" s="3" t="inlineStr"/>
+      <c r="E74" s="3" t="n"/>
       <c r="F74" s="3">
         <f>IF(B74="common", 4, IF(B74="uncommon", 3, IF(B74="rare", 0.73878, 1)))</f>
         <v/>
@@ -4958,7 +4944,7 @@
       <c r="D75" s="3" t="n">
         <v>12.66</v>
       </c>
-      <c r="E75" s="3" t="inlineStr"/>
+      <c r="E75" s="3" t="n"/>
       <c r="F75" s="3">
         <f>IF(B75="common", 4, IF(B75="uncommon", 3, IF(B75="rare", 0.73878, 1)))</f>
         <v/>
@@ -5014,7 +5000,7 @@
       <c r="D76" s="3" t="n">
         <v>14.18</v>
       </c>
-      <c r="E76" s="3" t="inlineStr"/>
+      <c r="E76" s="3" t="n"/>
       <c r="F76" s="3">
         <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 0.73878, 1)))</f>
         <v/>
@@ -5070,7 +5056,7 @@
       <c r="D77" s="3" t="n">
         <v>29.93</v>
       </c>
-      <c r="E77" s="3" t="inlineStr"/>
+      <c r="E77" s="3" t="n"/>
       <c r="F77" s="3">
         <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 0.73878, 1)))</f>
         <v/>
@@ -5300,7 +5286,7 @@
       <c r="D81" s="3" t="n">
         <v>12.71</v>
       </c>
-      <c r="E81" s="3" t="inlineStr"/>
+      <c r="E81" s="3" t="n"/>
       <c r="F81" s="3">
         <f>IF(B81="common", 4, IF(B81="uncommon", 3, IF(B81="rare", 0.73878, 1)))</f>
         <v/>
@@ -5588,7 +5574,7 @@
       <c r="D86" s="3" t="n">
         <v>0.52</v>
       </c>
-      <c r="E86" s="3" t="inlineStr"/>
+      <c r="E86" s="3" t="n"/>
       <c r="F86" s="3">
         <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 0.73878, 1)))</f>
         <v/>
@@ -5644,7 +5630,7 @@
       <c r="D87" s="3" t="n">
         <v>1.66</v>
       </c>
-      <c r="E87" s="3" t="inlineStr"/>
+      <c r="E87" s="3" t="n"/>
       <c r="F87" s="3">
         <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 0.73878, 1)))</f>
         <v/>
@@ -5700,7 +5686,7 @@
       <c r="D88" s="3" t="n">
         <v>15.91</v>
       </c>
-      <c r="E88" s="3" t="inlineStr"/>
+      <c r="E88" s="3" t="n"/>
       <c r="F88" s="3">
         <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 0.73878, 1)))</f>
         <v/>
@@ -5872,7 +5858,7 @@
       <c r="D91" s="3" t="n">
         <v>91.09</v>
       </c>
-      <c r="E91" s="3" t="inlineStr"/>
+      <c r="E91" s="3" t="n"/>
       <c r="F91" s="3">
         <f>IF(B91="common", 4, IF(B91="uncommon", 3, IF(B91="rare", 0.73878, 1)))</f>
         <v/>
@@ -6044,7 +6030,7 @@
       <c r="D94" s="3" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E94" s="3" t="inlineStr"/>
+      <c r="E94" s="3" t="n"/>
       <c r="F94" s="3">
         <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 0.73878, 1)))</f>
         <v/>
@@ -6100,7 +6086,7 @@
       <c r="D95" s="3" t="n">
         <v>2.59</v>
       </c>
-      <c r="E95" s="3" t="inlineStr"/>
+      <c r="E95" s="3" t="n"/>
       <c r="F95" s="3">
         <f>IF(B95="common", 4, IF(B95="uncommon", 3, IF(B95="rare", 0.73878, 1)))</f>
         <v/>
@@ -6272,7 +6258,7 @@
       <c r="D98" s="3" t="n">
         <v>1.32</v>
       </c>
-      <c r="E98" s="3" t="inlineStr"/>
+      <c r="E98" s="3" t="n"/>
       <c r="F98" s="3">
         <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 0.73878, 1)))</f>
         <v/>
@@ -6328,7 +6314,7 @@
       <c r="D99" s="3" t="n">
         <v>4.42</v>
       </c>
-      <c r="E99" s="3" t="inlineStr"/>
+      <c r="E99" s="3" t="n"/>
       <c r="F99" s="3">
         <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 0.73878, 1)))</f>
         <v/>
@@ -6384,7 +6370,7 @@
       <c r="D100" s="3" t="n">
         <v>13.62</v>
       </c>
-      <c r="E100" s="3" t="inlineStr"/>
+      <c r="E100" s="3" t="n"/>
       <c r="F100" s="3">
         <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 0.73878, 1)))</f>
         <v/>
@@ -6498,7 +6484,7 @@
       <c r="D102" s="3" t="n">
         <v>6.29</v>
       </c>
-      <c r="E102" s="3" t="inlineStr"/>
+      <c r="E102" s="3" t="n"/>
       <c r="F102" s="3">
         <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 0.73878, 1)))</f>
         <v/>
@@ -6612,7 +6598,7 @@
       <c r="D104" s="3" t="n">
         <v>4.71</v>
       </c>
-      <c r="E104" s="3" t="inlineStr"/>
+      <c r="E104" s="3" t="n"/>
       <c r="F104" s="3">
         <f>IF(B104="common", 4, IF(B104="uncommon", 3, IF(B104="rare", 0.73878, 1)))</f>
         <v/>
@@ -6668,7 +6654,7 @@
       <c r="D105" s="3" t="n">
         <v>0.57</v>
       </c>
-      <c r="E105" s="3" t="inlineStr"/>
+      <c r="E105" s="3" t="n"/>
       <c r="F105" s="3">
         <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 0.73878, 1)))</f>
         <v/>
@@ -6724,7 +6710,7 @@
       <c r="D106" s="3" t="n">
         <v>2.56</v>
       </c>
-      <c r="E106" s="3" t="inlineStr"/>
+      <c r="E106" s="3" t="n"/>
       <c r="F106" s="3">
         <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 0.73878, 1)))</f>
         <v/>
@@ -6780,7 +6766,7 @@
       <c r="D107" s="3" t="n">
         <v>23.01</v>
       </c>
-      <c r="E107" s="3" t="inlineStr"/>
+      <c r="E107" s="3" t="n"/>
       <c r="F107" s="3">
         <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 0.73878, 1)))</f>
         <v/>
@@ -6836,7 +6822,7 @@
       <c r="D108" s="3" t="n">
         <v>4.43</v>
       </c>
-      <c r="E108" s="3" t="inlineStr"/>
+      <c r="E108" s="3" t="n"/>
       <c r="F108" s="3">
         <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 0.73878, 1)))</f>
         <v/>
@@ -7008,7 +6994,7 @@
       <c r="D111" s="3" t="n">
         <v>10.11</v>
       </c>
-      <c r="E111" s="3" t="inlineStr"/>
+      <c r="E111" s="3" t="n"/>
       <c r="F111" s="3">
         <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 0.73878, 1)))</f>
         <v/>
@@ -7238,7 +7224,7 @@
       <c r="D115" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="E115" s="3" t="inlineStr"/>
+      <c r="E115" s="3" t="n"/>
       <c r="F115" s="3">
         <f>IF(B115="common", 4, IF(B115="uncommon", 3, IF(B115="rare", 0.73878, 1)))</f>
         <v/>
@@ -7526,7 +7512,7 @@
       <c r="D120" s="3" t="n">
         <v>11.37</v>
       </c>
-      <c r="E120" s="3" t="inlineStr"/>
+      <c r="E120" s="3" t="n"/>
       <c r="F120" s="3">
         <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 0.73878, 1)))</f>
         <v/>
@@ -7640,7 +7626,7 @@
       <c r="D122" s="3" t="n">
         <v>3.52</v>
       </c>
-      <c r="E122" s="3" t="inlineStr"/>
+      <c r="E122" s="3" t="n"/>
       <c r="F122" s="3">
         <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 0.73878, 1)))</f>
         <v/>
@@ -7754,7 +7740,7 @@
       <c r="D124" s="3" t="n">
         <v>11.87</v>
       </c>
-      <c r="E124" s="3" t="inlineStr"/>
+      <c r="E124" s="3" t="n"/>
       <c r="F124" s="3">
         <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 0.73878, 1)))</f>
         <v/>
@@ -7868,7 +7854,7 @@
       <c r="D126" s="3" t="n">
         <v>16.51</v>
       </c>
-      <c r="E126" s="3" t="inlineStr"/>
+      <c r="E126" s="3" t="n"/>
       <c r="F126" s="3">
         <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 0.73878, 1)))</f>
         <v/>
@@ -7982,7 +7968,7 @@
       <c r="D128" s="3" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E128" s="3" t="inlineStr"/>
+      <c r="E128" s="3" t="n"/>
       <c r="F128" s="3">
         <f>IF(B128="common", 4, IF(B128="uncommon", 3, IF(B128="rare", 0.73878, 1)))</f>
         <v/>
@@ -8038,7 +8024,7 @@
       <c r="D129" s="3" t="n">
         <v>7.62</v>
       </c>
-      <c r="E129" s="3" t="inlineStr"/>
+      <c r="E129" s="3" t="n"/>
       <c r="F129" s="3">
         <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 0.73878, 1)))</f>
         <v/>
@@ -8210,7 +8196,7 @@
       <c r="D132" s="3" t="n">
         <v>2.17</v>
       </c>
-      <c r="E132" s="3" t="inlineStr"/>
+      <c r="E132" s="3" t="n"/>
       <c r="F132" s="3">
         <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 0.73878, 1)))</f>
         <v/>
@@ -8266,7 +8252,7 @@
       <c r="D133" s="3" t="n">
         <v>7.56</v>
       </c>
-      <c r="E133" s="3" t="inlineStr"/>
+      <c r="E133" s="3" t="n"/>
       <c r="F133" s="3">
         <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 0.73878, 1)))</f>
         <v/>
@@ -8322,7 +8308,7 @@
       <c r="D134" s="3" t="n">
         <v>1.36</v>
       </c>
-      <c r="E134" s="3" t="inlineStr"/>
+      <c r="E134" s="3" t="n"/>
       <c r="F134" s="3">
         <f>IF(B134="common", 4, IF(B134="uncommon", 3, IF(B134="rare", 0.73878, 1)))</f>
         <v/>
@@ -8494,7 +8480,7 @@
       <c r="D137" s="3" t="n">
         <v>6.6</v>
       </c>
-      <c r="E137" s="3" t="inlineStr"/>
+      <c r="E137" s="3" t="n"/>
       <c r="F137" s="3">
         <f>IF(B137="common", 4, IF(B137="uncommon", 3, IF(B137="rare", 0.73878, 1)))</f>
         <v/>
@@ -8724,7 +8710,7 @@
       <c r="D141" s="3" t="n">
         <v>12.65</v>
       </c>
-      <c r="E141" s="3" t="inlineStr"/>
+      <c r="E141" s="3" t="n"/>
       <c r="F141" s="3">
         <f>IF(B141="common", 4, IF(B141="uncommon", 3, IF(B141="rare", 0.73878, 1)))</f>
         <v/>
@@ -8838,7 +8824,7 @@
       <c r="D143" s="3" t="n">
         <v>22.43</v>
       </c>
-      <c r="E143" s="3" t="inlineStr"/>
+      <c r="E143" s="3" t="n"/>
       <c r="F143" s="3">
         <f>IF(B143="common", 4, IF(B143="uncommon", 3, IF(B143="rare", 0.73878, 1)))</f>
         <v/>
@@ -8952,7 +8938,7 @@
       <c r="D145" s="3" t="n">
         <v>20.49</v>
       </c>
-      <c r="E145" s="3" t="inlineStr"/>
+      <c r="E145" s="3" t="n"/>
       <c r="F145" s="3">
         <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 0.73878, 1)))</f>
         <v/>
@@ -9356,7 +9342,7 @@
       <c r="D152" s="3" t="n">
         <v>1.29</v>
       </c>
-      <c r="E152" s="3" t="inlineStr"/>
+      <c r="E152" s="3" t="n"/>
       <c r="F152" s="3">
         <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 0.73878, 1)))</f>
         <v/>
@@ -10108,7 +10094,7 @@
       <c r="D165" s="3" t="n">
         <v>3.91</v>
       </c>
-      <c r="E165" s="3" t="inlineStr"/>
+      <c r="E165" s="3" t="n"/>
       <c r="F165" s="3">
         <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 0.73878, 1)))</f>
         <v/>
@@ -10164,7 +10150,7 @@
       <c r="D166" s="3" t="n">
         <v>12.36</v>
       </c>
-      <c r="E166" s="3" t="inlineStr"/>
+      <c r="E166" s="3" t="n"/>
       <c r="F166" s="3">
         <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 0.73878, 1)))</f>
         <v/>
@@ -10278,7 +10264,7 @@
       <c r="D168" s="3" t="n">
         <v>20.85</v>
       </c>
-      <c r="E168" s="3" t="inlineStr"/>
+      <c r="E168" s="3" t="n"/>
       <c r="F168" s="3">
         <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 0.73878, 1)))</f>
         <v/>
@@ -10450,7 +10436,7 @@
       <c r="D171" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="E171" s="3" t="inlineStr"/>
+      <c r="E171" s="3" t="n"/>
       <c r="F171" s="3">
         <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 0.73878, 1)))</f>
         <v/>
@@ -10622,7 +10608,7 @@
       <c r="D174" s="3" t="n">
         <v>4.4</v>
       </c>
-      <c r="E174" s="3" t="inlineStr"/>
+      <c r="E174" s="3" t="n"/>
       <c r="F174" s="3">
         <f>IF(B174="common", 4, IF(B174="uncommon", 3, IF(B174="rare", 0.73878, 1)))</f>
         <v/>
@@ -10678,7 +10664,7 @@
       <c r="D175" s="3" t="n">
         <v>10.66</v>
       </c>
-      <c r="E175" s="3" t="inlineStr"/>
+      <c r="E175" s="3" t="n"/>
       <c r="F175" s="3">
         <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 0.73878, 1)))</f>
         <v/>
@@ -10792,7 +10778,7 @@
       <c r="D177" s="3" t="n">
         <v>3.76</v>
       </c>
-      <c r="E177" s="3" t="inlineStr"/>
+      <c r="E177" s="3" t="n"/>
       <c r="F177" s="3">
         <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 0.73878, 1)))</f>
         <v/>
@@ -10848,7 +10834,7 @@
       <c r="D178" s="3" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="E178" s="3" t="inlineStr"/>
+      <c r="E178" s="3" t="n"/>
       <c r="F178" s="3">
         <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 0.73878, 1)))</f>
         <v/>
@@ -11078,7 +11064,7 @@
       <c r="D182" s="3" t="n">
         <v>4.35</v>
       </c>
-      <c r="E182" s="3" t="inlineStr"/>
+      <c r="E182" s="3" t="n"/>
       <c r="F182" s="3">
         <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 0.73878, 1)))</f>
         <v/>
@@ -11192,7 +11178,7 @@
       <c r="D184" s="3" t="n">
         <v>2.36</v>
       </c>
-      <c r="E184" s="3" t="inlineStr"/>
+      <c r="E184" s="3" t="n"/>
       <c r="F184" s="3">
         <f>IF(B184="common", 4, IF(B184="uncommon", 3, IF(B184="rare", 0.73878, 1)))</f>
         <v/>
@@ -11248,7 +11234,7 @@
       <c r="D185" s="3" t="n">
         <v>7.31</v>
       </c>
-      <c r="E185" s="3" t="inlineStr"/>
+      <c r="E185" s="3" t="n"/>
       <c r="F185" s="3">
         <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 0.73878, 1)))</f>
         <v/>
@@ -11304,7 +11290,7 @@
       <c r="D186" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E186" s="3" t="inlineStr"/>
+      <c r="E186" s="3" t="n"/>
       <c r="F186" s="3">
         <f>IF(B186="common", 4, IF(B186="uncommon", 3, IF(B186="rare", 0.73878, 1)))</f>
         <v/>
@@ -11360,7 +11346,7 @@
       <c r="D187" s="3" t="n">
         <v>3.41</v>
       </c>
-      <c r="E187" s="3" t="inlineStr"/>
+      <c r="E187" s="3" t="n"/>
       <c r="F187" s="3">
         <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 0.73878, 1)))</f>
         <v/>
@@ -11416,7 +11402,7 @@
       <c r="D188" s="3" t="n">
         <v>43.85</v>
       </c>
-      <c r="E188" s="3" t="inlineStr"/>
+      <c r="E188" s="3" t="n"/>
       <c r="F188" s="3">
         <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 0.73878, 1)))</f>
         <v/>
@@ -11472,7 +11458,7 @@
       <c r="D189" s="3" t="n">
         <v>6.21</v>
       </c>
-      <c r="E189" s="3" t="inlineStr"/>
+      <c r="E189" s="3" t="n"/>
       <c r="F189" s="3">
         <f>IF(B189="common", 4, IF(B189="uncommon", 3, IF(B189="rare", 0.73878, 1)))</f>
         <v/>
@@ -11586,7 +11572,7 @@
       <c r="D191" s="3" t="n">
         <v>1.43</v>
       </c>
-      <c r="E191" s="3" t="inlineStr"/>
+      <c r="E191" s="3" t="n"/>
       <c r="F191" s="3">
         <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 0.73878, 1)))</f>
         <v/>
@@ -11642,7 +11628,7 @@
       <c r="D192" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E192" s="3" t="inlineStr"/>
+      <c r="E192" s="3" t="n"/>
       <c r="F192" s="3">
         <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 0.73878, 1)))</f>
         <v/>
@@ -11698,7 +11684,7 @@
       <c r="D193" s="3" t="n">
         <v>1.66</v>
       </c>
-      <c r="E193" s="3" t="inlineStr"/>
+      <c r="E193" s="3" t="n"/>
       <c r="F193" s="3">
         <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 0.73878, 1)))</f>
         <v/>
@@ -11754,7 +11740,7 @@
       <c r="D194" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="E194" s="3" t="inlineStr"/>
+      <c r="E194" s="3" t="n"/>
       <c r="F194" s="3">
         <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 0.73878, 1)))</f>
         <v/>
@@ -11984,7 +11970,7 @@
       <c r="D198" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="E198" s="3" t="inlineStr"/>
+      <c r="E198" s="3" t="n"/>
       <c r="F198" s="3">
         <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 0.73878, 1)))</f>
         <v/>
@@ -12214,7 +12200,7 @@
       <c r="D202" s="3" t="n">
         <v>0.71</v>
       </c>
-      <c r="E202" s="3" t="inlineStr"/>
+      <c r="E202" s="3" t="n"/>
       <c r="F202" s="3">
         <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 0.73878, 1)))</f>
         <v/>
@@ -12328,7 +12314,7 @@
       <c r="D204" s="3" t="n">
         <v>4.38</v>
       </c>
-      <c r="E204" s="3" t="inlineStr"/>
+      <c r="E204" s="3" t="n"/>
       <c r="F204" s="3">
         <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 0.73878, 1)))</f>
         <v/>
@@ -12500,7 +12486,7 @@
       <c r="D207" s="3" t="n">
         <v>7.7</v>
       </c>
-      <c r="E207" s="3" t="inlineStr"/>
+      <c r="E207" s="3" t="n"/>
       <c r="F207" s="3">
         <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 0.73878, 1)))</f>
         <v/>
@@ -12672,7 +12658,7 @@
       <c r="D210" s="3" t="n">
         <v>27.4</v>
       </c>
-      <c r="E210" s="3" t="inlineStr"/>
+      <c r="E210" s="3" t="n"/>
       <c r="F210" s="3">
         <f>IF(B210="common", 4, IF(B210="uncommon", 3, IF(B210="rare", 0.73878, 1)))</f>
         <v/>
@@ -12830,7 +12816,7 @@
       <c r="D214" s="3" t="n">
         <v>10.54</v>
       </c>
-      <c r="E214" s="3" t="inlineStr"/>
+      <c r="E214" s="3" t="n"/>
       <c r="F214" s="3">
         <f>IF(B214="common", 4, IF(B214="uncommon", 3, IF(B214="rare", 0.73878, 1)))</f>
         <v/>
@@ -12924,7 +12910,7 @@
       <c r="D217" s="3" t="n">
         <v>0.59</v>
       </c>
-      <c r="E217" s="3" t="inlineStr"/>
+      <c r="E217" s="3" t="n"/>
       <c r="F217" s="3">
         <f>IF(B217="common", 4, IF(B217="uncommon", 3, IF(B217="rare", 0.73878, 1)))</f>
         <v/>
@@ -12954,7 +12940,7 @@
       <c r="D218" s="3" t="n">
         <v>1.87</v>
       </c>
-      <c r="E218" s="3" t="inlineStr"/>
+      <c r="E218" s="3" t="n"/>
       <c r="F218" s="3">
         <f>IF(B218="common", 4, IF(B218="uncommon", 3, IF(B218="rare", 0.73878, 1)))</f>
         <v/>
@@ -12984,7 +12970,7 @@
       <c r="D219" s="3" t="n">
         <v>16.15</v>
       </c>
-      <c r="E219" s="3" t="inlineStr"/>
+      <c r="E219" s="3" t="n"/>
       <c r="F219" s="3">
         <f>IF(B219="common", 4, IF(B219="uncommon", 3, IF(B219="rare", 0.73878, 1)))</f>
         <v/>
@@ -13494,7 +13480,7 @@
       <c r="D235" s="3" t="n">
         <v>5.5</v>
       </c>
-      <c r="E235" s="3" t="inlineStr"/>
+      <c r="E235" s="3" t="n"/>
       <c r="F235" s="3">
         <f>IF(B235="common", 4, IF(B235="uncommon", 3, IF(B235="rare", 0.73878, 1)))</f>
         <v/>
@@ -13556,7 +13542,7 @@
       <c r="D237" s="3" t="n">
         <v>0.63</v>
       </c>
-      <c r="E237" s="3" t="inlineStr"/>
+      <c r="E237" s="3" t="n"/>
       <c r="F237" s="3">
         <f>IF(B237="common", 4, IF(B237="uncommon", 3, IF(B237="rare", 0.73878, 1)))</f>
         <v/>
@@ -13586,7 +13572,7 @@
       <c r="D238" s="3" t="n">
         <v>2.59</v>
       </c>
-      <c r="E238" s="3" t="inlineStr"/>
+      <c r="E238" s="3" t="n"/>
       <c r="F238" s="3">
         <f>IF(B238="common", 4, IF(B238="uncommon", 3, IF(B238="rare", 0.73878, 1)))</f>
         <v/>
@@ -13648,7 +13634,7 @@
       <c r="D240" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="E240" s="3" t="inlineStr"/>
+      <c r="E240" s="3" t="n"/>
       <c r="F240" s="3">
         <f>IF(B240="common", 4, IF(B240="uncommon", 3, IF(B240="rare", 0.73878, 1)))</f>
         <v/>
@@ -13678,7 +13664,7 @@
       <c r="D241" s="3" t="n">
         <v>1.73</v>
       </c>
-      <c r="E241" s="3" t="inlineStr"/>
+      <c r="E241" s="3" t="n"/>
       <c r="F241" s="3">
         <f>IF(B241="common", 4, IF(B241="uncommon", 3, IF(B241="rare", 0.73878, 1)))</f>
         <v/>
@@ -13740,7 +13726,7 @@
       <c r="D243" s="3" t="n">
         <v>3.31</v>
       </c>
-      <c r="E243" s="3" t="inlineStr"/>
+      <c r="E243" s="3" t="n"/>
       <c r="F243" s="3">
         <f>IF(B243="common", 4, IF(B243="uncommon", 3, IF(B243="rare", 0.73878, 1)))</f>
         <v/>
@@ -13770,7 +13756,7 @@
       <c r="D244" s="3" t="n">
         <v>6.78</v>
       </c>
-      <c r="E244" s="3" t="inlineStr"/>
+      <c r="E244" s="3" t="n"/>
       <c r="F244" s="3">
         <f>IF(B244="common", 4, IF(B244="uncommon", 3, IF(B244="rare", 0.73878, 1)))</f>
         <v/>
@@ -13832,7 +13818,7 @@
       <c r="D246" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="E246" s="3" t="inlineStr"/>
+      <c r="E246" s="3" t="n"/>
       <c r="F246" s="3">
         <f>IF(B246="common", 4, IF(B246="uncommon", 3, IF(B246="rare", 0.73878, 1)))</f>
         <v/>
@@ -13958,7 +13944,7 @@
       <c r="D250" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="E250" s="3" t="inlineStr"/>
+      <c r="E250" s="3" t="n"/>
       <c r="F250" s="3">
         <f>IF(B250="common", 4, IF(B250="uncommon", 3, IF(B250="rare", 0.73878, 1)))</f>
         <v/>
@@ -14180,7 +14166,7 @@
       <c r="D257" s="3" t="n">
         <v>5.93</v>
       </c>
-      <c r="E257" s="3" t="inlineStr"/>
+      <c r="E257" s="3" t="n"/>
       <c r="F257" s="3">
         <f>IF(B257="common", 4, IF(B257="uncommon", 3, IF(B257="rare", 0.73878, 1)))</f>
         <v/>
@@ -14370,7 +14356,7 @@
       <c r="D263" s="3" t="n">
         <v>17.65</v>
       </c>
-      <c r="E263" s="3" t="inlineStr"/>
+      <c r="E263" s="3" t="n"/>
       <c r="F263" s="3">
         <f>IF(B263="common", 4, IF(B263="uncommon", 3, IF(B263="rare", 0.73878, 1)))</f>
         <v/>
@@ -21414,7 +21400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21424,248 +21410,560 @@
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Summary Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>ev_common_total</t>
         </is>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.2924675324675324</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>ev_uncommon_total</t>
         </is>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.331551724137931</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>ev_rare_total</t>
         </is>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.09483950617283952</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>ev_reverse_total</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.3494603206988607</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>ev_ace_spec_total</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>ev_pokeball_total</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>ev_master_ball_total</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>ev_IR_total</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="11" t="n">
         <v>0.9214253393665157</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>ev_SIR_total</t>
         </is>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="11" t="n">
         <v>0.3927949438202247</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="inlineStr">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>ev_double_rare_total</t>
         </is>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.20359375</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>ev_hyper_rare_total</t>
         </is>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.06614583333333333</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>ev_ultra_rare_total</t>
         </is>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.2068408551068884</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>reverse_multiplier</t>
         </is>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="11" t="n">
         <v>1.889605205381023</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="inlineStr">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>rare_multiplier</t>
         </is>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>regular_pack_ev_contribution</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>2.859119805104126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>god_pack_ev_contribution</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>demi_god_pack_ev_contribution</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t>total_manual_ev</t>
         </is>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B19" s="11" t="n">
         <v>2.859119805104126</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="13" t="inlineStr">
-        <is>
-          <t>regular_pack_ev_contribution</t>
-        </is>
-      </c>
-      <c r="B17" s="13" t="n">
+    <row r="21">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>Results Metric</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>total_manual_ev</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
         <v>2.859119805104126</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>god_pack_ev_contribution</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="inlineStr">
-        <is>
-          <t>demi_god_pack_ev_contribution</t>
-        </is>
-      </c>
-      <c r="B19" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>acutal_simulated_ev</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>2.9096855</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>pack_price</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>hit_probability_percentage</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>28.37362152609313</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>no_hit_probability_percentage</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>71.62637847390687</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>net_value</t>
         </is>
       </c>
-      <c r="B20" s="14" t="n">
-        <v>-3.1817187</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="inlineStr">
+      <c r="B27" s="11" t="n">
+        <v>-3.1403145</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>opening_pack_roi</t>
         </is>
       </c>
-      <c r="B21" s="13" t="n">
-        <v>0.4740960826446281</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="inlineStr">
+      <c r="B28" s="11" t="n">
+        <v>0.4809397520661157</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>opening_pack_roi_percent</t>
         </is>
       </c>
-      <c r="B22" s="13" t="n">
-        <v>-52.59039173553719</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>no_hit_probability_percentage</t>
-        </is>
-      </c>
-      <c r="B23" s="15" t="n">
-        <v>0.7162637847390687</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>hit_probability_percentage</t>
-        </is>
-      </c>
-      <c r="B24" s="15" t="n">
-        <v>0.2837362152609313</v>
+      <c r="B29" s="11" t="n">
+        <v>-51.90602479338844</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="inlineStr">
+        <is>
+          <t>Simulation Metric</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mean Value</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.9096855</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.442374480119093</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Minimum Value</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Maximum Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>104.67</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>25th</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>50th (median)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>75th</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>90th</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6.449999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>95th</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12.10049999999988</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>99th</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>28.21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="inlineStr">
+        <is>
+          <t>Top 10 Most Expensive Hits</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Effective Pull Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Groudon - 199/182</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>91.09</v>
+      </c>
+      <c r="C45" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Roaring Moon ex - 251/182</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="C46" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Altaria ex - 253/182</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>43.83</v>
+      </c>
+      <c r="C47" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Garchomp ex - 245/182</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="C48" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Gholdengo ex - 252/182</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="C49" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Steelix - 208/182</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Iron Valiant ex - 249/182</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C51" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Minun - 194/182</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="C52" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Plusle - 193/182</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C53" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Morpeko - 206/182</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="C54" t="n">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/excelDocs/paradoxRift/pokemon_data.xlsx
+++ b/excelDocs/paradoxRift/pokemon_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25665" yWindow="2085" windowWidth="25260" windowHeight="11880" tabRatio="797" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25665" yWindow="2085" windowWidth="25260" windowHeight="11880" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,11 +43,8 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -59,13 +56,8 @@
         <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,17 +121,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -166,12 +152,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -541,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:AY1263"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -559,8 +539,8 @@
     <col width="24" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
     <col width="24" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="20.42578125" customWidth="1" min="13" max="13"/>
-    <col width="28.85546875" customWidth="1" min="14" max="14"/>
+    <col width="20.4" customWidth="1" min="13" max="13"/>
+    <col width="28.8" customWidth="1" min="14" max="14"/>
     <col width="13.85546875" customWidth="1" min="15" max="15"/>
     <col width="33.5703125" customWidth="1" min="16" max="16"/>
     <col width="26.85546875" customWidth="1" min="17" max="17"/>
@@ -573,7 +553,7 @@
     <col width="24" customWidth="1" min="48" max="48"/>
     <col width="20.42578125" customWidth="1" min="49" max="49"/>
     <col width="28.85546875" customWidth="1" min="50" max="50"/>
-    <col width="16.85546875" customWidth="1" min="51" max="51"/>
+    <col width="16.8" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -703,10 +683,10 @@
         <v>58</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="3">
         <f>IF(B2="common", 4, IF(B2="uncommon", 3, IF(B2="rare", 0.73878, 1)))</f>
@@ -721,16 +701,16 @@
         <v/>
       </c>
       <c r="I2" s="3" t="n">
-        <v>6.05</v>
+        <v>6.32</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>61.18</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>83.08</v>
+        <v>93.34</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>2.85</v>
+        <v>3.02</v>
       </c>
       <c r="M2" s="3" t="n"/>
       <c r="N2" s="3" t="n"/>
@@ -777,10 +757,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F3" s="3">
         <f>IF(B3="common", 4, IF(B3="uncommon", 3, IF(B3="rare", 0.73878, 1)))</f>
@@ -838,9 +818,9 @@
         <v>442</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E4" s="3" t="n"/>
+        <v>6.16</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3">
         <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 0.73878, 1)))</f>
         <v/>
@@ -897,9 +877,9 @@
         <v>128</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E5" s="3" t="n"/>
+        <v>0.76</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
         <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 0.73878, 1)))</f>
         <v/>
@@ -956,9 +936,9 @@
         <v>421</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="3" t="n"/>
+        <v>1.34</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
         <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 0.73878, 1)))</f>
         <v/>
@@ -1015,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F7" s="3">
         <f>IF(B7="common", 4, IF(B7="uncommon", 3, IF(B7="rare", 0.73878, 1)))</f>
@@ -1076,9 +1056,9 @@
         <v>442</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E8" s="3" t="n"/>
+        <v>8.84</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr"/>
       <c r="F8" s="3">
         <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 0.73878, 1)))</f>
         <v/>
@@ -1135,9 +1115,9 @@
         <v>128</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E9" s="3" t="n"/>
+        <v>0.74</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr"/>
       <c r="F9" s="3">
         <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 0.73878, 1)))</f>
         <v/>
@@ -1194,9 +1174,9 @@
         <v>421</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E10" s="3" t="n"/>
+        <v>2.73</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3">
         <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 0.73878, 1)))</f>
         <v/>
@@ -1253,9 +1233,9 @@
         <v>712</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>43.83</v>
-      </c>
-      <c r="E11" s="3" t="n"/>
+        <v>44.1</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
         <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 0.73878, 1)))</f>
         <v/>
@@ -1312,10 +1292,10 @@
         <v>58</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F12" s="3">
         <f>IF(B12="common", 4, IF(B12="uncommon", 3, IF(B12="rare", 0.73878, 1)))</f>
@@ -1378,7 +1358,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F13" s="3">
         <f>IF(B13="common", 4, IF(B13="uncommon", 3, IF(B13="rare", 0.73878, 1)))</f>
@@ -1438,9 +1418,9 @@
         <v>128</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E14" s="3" t="n"/>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
         <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 0.73878, 1)))</f>
         <v/>
@@ -1494,9 +1474,9 @@
         <v>421</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E15" s="3" t="n"/>
+        <v>1.43</v>
+      </c>
+      <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3">
         <f>IF(B15="common", 4, IF(B15="uncommon", 3, IF(B15="rare", 0.73878, 1)))</f>
         <v/>
@@ -1550,9 +1530,9 @@
         <v>576</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="E16" s="3" t="n"/>
+        <v>2.81</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3">
         <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 0.73878, 1)))</f>
         <v/>
@@ -1606,10 +1586,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F17" s="3">
         <f>IF(B17="common", 4, IF(B17="uncommon", 3, IF(B17="rare", 0.73878, 1)))</f>
@@ -1667,10 +1647,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F18" s="3">
         <f>IF(B18="common", 4, IF(B18="uncommon", 3, IF(B18="rare", 0.73878, 1)))</f>
@@ -1725,9 +1705,9 @@
         <v>442</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E19" s="3" t="n"/>
+        <v>5.48</v>
+      </c>
+      <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3">
         <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 0.73878, 1)))</f>
         <v/>
@@ -1781,9 +1761,9 @@
         <v>128</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E20" s="3" t="n"/>
+        <v>0.68</v>
+      </c>
+      <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
         <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 0.73878, 1)))</f>
         <v/>
@@ -1837,9 +1817,9 @@
         <v>421</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="E21" s="3" t="n"/>
+        <v>1.12</v>
+      </c>
+      <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3">
         <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 0.73878, 1)))</f>
         <v/>
@@ -1896,10 +1876,10 @@
         <v>77</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F22" s="3">
         <f>IF(B22="common", 4, IF(B22="uncommon", 3, IF(B22="rare", 0.73878, 1)))</f>
@@ -1960,7 +1940,7 @@
         <v>0.19</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="F23" s="3">
         <f>IF(B23="common", 4, IF(B23="uncommon", 3, IF(B23="rare", 0.73878, 1)))</f>
@@ -2018,9 +1998,9 @@
         <v>442</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E24" s="3" t="n"/>
+        <v>8.82</v>
+      </c>
+      <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
         <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 0.73878, 1)))</f>
         <v/>
@@ -2077,7 +2057,7 @@
         <v>0.06</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F25" s="3">
         <f>IF(B25="common", 4, IF(B25="uncommon", 3, IF(B25="rare", 0.73878, 1)))</f>
@@ -2135,7 +2115,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F26" s="3">
         <f>IF(B26="common", 4, IF(B26="uncommon", 3, IF(B26="rare", 0.73878, 1)))</f>
@@ -2190,10 +2170,10 @@
         <v>27</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="F27" s="3">
         <f>IF(B27="common", 4, IF(B27="uncommon", 3, IF(B27="rare", 0.73878, 1)))</f>
@@ -2248,10 +2228,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="F28" s="3">
         <f>IF(B28="common", 4, IF(B28="uncommon", 3, IF(B28="rare", 0.73878, 1)))</f>
@@ -2306,9 +2286,9 @@
         <v>128</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E29" s="3" t="n"/>
+        <v>0.7</v>
+      </c>
+      <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
         <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 0.73878, 1)))</f>
         <v/>
@@ -2362,9 +2342,9 @@
         <v>421</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E30" s="3" t="n"/>
+        <v>1.61</v>
+      </c>
+      <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
         <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 0.73878, 1)))</f>
         <v/>
@@ -2418,10 +2398,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="F31" s="3">
         <f>IF(B31="common", 4, IF(B31="uncommon", 3, IF(B31="rare", 0.73878, 1)))</f>
@@ -2476,9 +2456,9 @@
         <v>576</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="E32" s="3" t="n"/>
+        <v>7.54</v>
+      </c>
+      <c r="E32" s="3" t="inlineStr"/>
       <c r="F32" s="3">
         <f>IF(B32="common", 4, IF(B32="uncommon", 3, IF(B32="rare", 0.73878, 1)))</f>
         <v/>
@@ -2532,10 +2512,10 @@
         <v>58</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F33" s="3">
         <f>IF(B33="common", 4, IF(B33="uncommon", 3, IF(B33="rare", 0.73878, 1)))</f>
@@ -2590,10 +2570,10 @@
         <v>58</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F34" s="3">
         <f>IF(B34="common", 4, IF(B34="uncommon", 3, IF(B34="rare", 0.73878, 1)))</f>
@@ -2648,10 +2628,10 @@
         <v>77</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F35" s="3">
         <f>IF(B35="common", 4, IF(B35="uncommon", 3, IF(B35="rare", 0.73878, 1)))</f>
@@ -2706,9 +2686,9 @@
         <v>442</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="E36" s="3" t="n"/>
+        <v>3.05</v>
+      </c>
+      <c r="E36" s="3" t="inlineStr"/>
       <c r="F36" s="3">
         <f>IF(B36="common", 4, IF(B36="uncommon", 3, IF(B36="rare", 0.73878, 1)))</f>
         <v/>
@@ -2762,10 +2742,10 @@
         <v>58</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F37" s="3">
         <f>IF(B37="common", 4, IF(B37="uncommon", 3, IF(B37="rare", 0.73878, 1)))</f>
@@ -2820,10 +2800,10 @@
         <v>58</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F38" s="3">
         <f>IF(B38="common", 4, IF(B38="uncommon", 3, IF(B38="rare", 0.73878, 1)))</f>
@@ -2878,9 +2858,9 @@
         <v>442</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="E39" s="3" t="n"/>
+        <v>3.7</v>
+      </c>
+      <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3">
         <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 0.73878, 1)))</f>
         <v/>
@@ -2934,10 +2914,10 @@
         <v>58</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F40" s="3">
         <f>IF(B40="common", 4, IF(B40="uncommon", 3, IF(B40="rare", 0.73878, 1)))</f>
@@ -2992,10 +2972,10 @@
         <v>27</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="F41" s="3">
         <f>IF(B41="common", 4, IF(B41="uncommon", 3, IF(B41="rare", 0.73878, 1)))</f>
@@ -3050,10 +3030,10 @@
         <v>58</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F42" s="3">
         <f>IF(B42="common", 4, IF(B42="uncommon", 3, IF(B42="rare", 0.73878, 1)))</f>
@@ -3108,10 +3088,10 @@
         <v>77</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F43" s="3">
         <f>IF(B43="common", 4, IF(B43="uncommon", 3, IF(B43="rare", 0.73878, 1)))</f>
@@ -3166,9 +3146,9 @@
         <v>442</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E44" s="3" t="n"/>
+        <v>3.03</v>
+      </c>
+      <c r="E44" s="3" t="inlineStr"/>
       <c r="F44" s="3">
         <f>IF(B44="common", 4, IF(B44="uncommon", 3, IF(B44="rare", 0.73878, 1)))</f>
         <v/>
@@ -3222,10 +3202,10 @@
         <v>77</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F45" s="3">
         <f>IF(B45="common", 4, IF(B45="uncommon", 3, IF(B45="rare", 0.73878, 1)))</f>
@@ -3280,10 +3260,10 @@
         <v>77</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F46" s="3">
         <f>IF(B46="common", 4, IF(B46="uncommon", 3, IF(B46="rare", 0.73878, 1)))</f>
@@ -3341,7 +3321,7 @@
         <v>0.06</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F47" s="3">
         <f>IF(B47="common", 4, IF(B47="uncommon", 3, IF(B47="rare", 0.73878, 1)))</f>
@@ -3396,10 +3376,10 @@
         <v>77</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F48" s="3">
         <f>IF(B48="common", 4, IF(B48="uncommon", 3, IF(B48="rare", 0.73878, 1)))</f>
@@ -3454,10 +3434,10 @@
         <v>58</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="F49" s="3">
         <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 0.73878, 1)))</f>
@@ -3512,7 +3492,7 @@
         <v>77</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>0.14</v>
@@ -3570,10 +3550,10 @@
         <v>27</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F51" s="3">
         <f>IF(B51="common", 4, IF(B51="uncommon", 3, IF(B51="rare", 0.73878, 1)))</f>
@@ -3628,9 +3608,9 @@
         <v>442</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="E52" s="3" t="n"/>
+        <v>5.08</v>
+      </c>
+      <c r="E52" s="3" t="inlineStr"/>
       <c r="F52" s="3">
         <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 0.73878, 1)))</f>
         <v/>
@@ -3684,10 +3664,10 @@
         <v>58</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F53" s="3">
         <f>IF(B53="common", 4, IF(B53="uncommon", 3, IF(B53="rare", 0.73878, 1)))</f>
@@ -3742,10 +3722,10 @@
         <v>77</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F54" s="3">
         <f>IF(B54="common", 4, IF(B54="uncommon", 3, IF(B54="rare", 0.73878, 1)))</f>
@@ -3800,10 +3780,10 @@
         <v>77</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F55" s="3">
         <f>IF(B55="common", 4, IF(B55="uncommon", 3, IF(B55="rare", 0.73878, 1)))</f>
@@ -3858,10 +3838,10 @@
         <v>58</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F56" s="3">
         <f>IF(B56="common", 4, IF(B56="uncommon", 3, IF(B56="rare", 0.73878, 1)))</f>
@@ -3916,9 +3896,9 @@
         <v>442</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E57" s="3" t="n"/>
+        <v>3.8</v>
+      </c>
+      <c r="E57" s="3" t="inlineStr"/>
       <c r="F57" s="3">
         <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 0.73878, 1)))</f>
         <v/>
@@ -3972,10 +3952,10 @@
         <v>77</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F58" s="3">
         <f>IF(B58="common", 4, IF(B58="uncommon", 3, IF(B58="rare", 0.73878, 1)))</f>
@@ -4033,7 +4013,7 @@
         <v>0.06</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F59" s="3">
         <f>IF(B59="common", 4, IF(B59="uncommon", 3, IF(B59="rare", 0.73878, 1)))</f>
@@ -4091,7 +4071,7 @@
         <v>0.06</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F60" s="3">
         <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 0.73878, 1)))</f>
@@ -4146,9 +4126,9 @@
         <v>128</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E61" s="3" t="n"/>
+        <v>0.75</v>
+      </c>
+      <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
         <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 0.73878, 1)))</f>
         <v/>
@@ -4202,9 +4182,9 @@
         <v>421</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E62" s="3" t="n"/>
+        <v>1.31</v>
+      </c>
+      <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
         <f>IF(B62="common", 4, IF(B62="uncommon", 3, IF(B62="rare", 0.73878, 1)))</f>
         <v/>
@@ -4258,7 +4238,7 @@
         <v>77</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="E63" s="3" t="n">
         <v>0.14</v>
@@ -4316,10 +4296,10 @@
         <v>58</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F64" s="3">
         <f>IF(B64="common", 4, IF(B64="uncommon", 3, IF(B64="rare", 0.73878, 1)))</f>
@@ -4374,7 +4354,7 @@
         <v>77</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>0.12</v>
@@ -4432,10 +4412,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F66" s="3">
         <f>IF(B66="common", 4, IF(B66="uncommon", 3, IF(B66="rare", 0.73878, 1)))</f>
@@ -4490,10 +4470,10 @@
         <v>58</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="F67" s="3">
         <f>IF(B67="common", 4, IF(B67="uncommon", 3, IF(B67="rare", 0.73878, 1)))</f>
@@ -4548,9 +4528,9 @@
         <v>442</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="E68" s="3" t="n"/>
+        <v>10.31</v>
+      </c>
+      <c r="E68" s="3" t="inlineStr"/>
       <c r="F68" s="3">
         <f>IF(B68="common", 4, IF(B68="uncommon", 3, IF(B68="rare", 0.73878, 1)))</f>
         <v/>
@@ -4604,9 +4584,9 @@
         <v>128</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E69" s="3" t="n"/>
+        <v>0.74</v>
+      </c>
+      <c r="E69" s="3" t="inlineStr"/>
       <c r="F69" s="3">
         <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 0.73878, 1)))</f>
         <v/>
@@ -4660,9 +4640,9 @@
         <v>421</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E70" s="3" t="n"/>
+        <v>4.98</v>
+      </c>
+      <c r="E70" s="3" t="inlineStr"/>
       <c r="F70" s="3">
         <f>IF(B70="common", 4, IF(B70="uncommon", 3, IF(B70="rare", 0.73878, 1)))</f>
         <v/>
@@ -4716,9 +4696,9 @@
         <v>712</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>34.59</v>
-      </c>
-      <c r="E71" s="3" t="n"/>
+        <v>30.19</v>
+      </c>
+      <c r="E71" s="3" t="inlineStr"/>
       <c r="F71" s="3">
         <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 0.73878, 1)))</f>
         <v/>
@@ -4772,9 +4752,9 @@
         <v>576</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="E72" s="3" t="n"/>
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
         <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 0.73878, 1)))</f>
         <v/>
@@ -4831,7 +4811,7 @@
         <v>0.1</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F73" s="3">
         <f>IF(B73="common", 4, IF(B73="uncommon", 3, IF(B73="rare", 0.73878, 1)))</f>
@@ -4886,9 +4866,9 @@
         <v>442</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="E74" s="3" t="n"/>
+        <v>3.42</v>
+      </c>
+      <c r="E74" s="3" t="inlineStr"/>
       <c r="F74" s="3">
         <f>IF(B74="common", 4, IF(B74="uncommon", 3, IF(B74="rare", 0.73878, 1)))</f>
         <v/>
@@ -4942,9 +4922,9 @@
         <v>128</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="E75" s="3" t="n"/>
+        <v>6.38</v>
+      </c>
+      <c r="E75" s="3" t="inlineStr"/>
       <c r="F75" s="3">
         <f>IF(B75="common", 4, IF(B75="uncommon", 3, IF(B75="rare", 0.73878, 1)))</f>
         <v/>
@@ -4998,9 +4978,9 @@
         <v>421</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="E76" s="3" t="n"/>
+        <v>6.84</v>
+      </c>
+      <c r="E76" s="3" t="inlineStr"/>
       <c r="F76" s="3">
         <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 0.73878, 1)))</f>
         <v/>
@@ -5054,9 +5034,9 @@
         <v>712</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="E77" s="3" t="n"/>
+        <v>27.17</v>
+      </c>
+      <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="3">
         <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 0.73878, 1)))</f>
         <v/>
@@ -5110,10 +5090,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F78" s="3">
         <f>IF(B78="common", 4, IF(B78="uncommon", 3, IF(B78="rare", 0.73878, 1)))</f>
@@ -5168,10 +5148,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F79" s="3">
         <f>IF(B79="common", 4, IF(B79="uncommon", 3, IF(B79="rare", 0.73878, 1)))</f>
@@ -5226,10 +5206,10 @@
         <v>77</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F80" s="3">
         <f>IF(B80="common", 4, IF(B80="uncommon", 3, IF(B80="rare", 0.73878, 1)))</f>
@@ -5284,9 +5264,9 @@
         <v>442</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="E81" s="3" t="n"/>
+        <v>10.5</v>
+      </c>
+      <c r="E81" s="3" t="inlineStr"/>
       <c r="F81" s="3">
         <f>IF(B81="common", 4, IF(B81="uncommon", 3, IF(B81="rare", 0.73878, 1)))</f>
         <v/>
@@ -5340,7 +5320,7 @@
         <v>77</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E82" s="3" t="n">
         <v>0.14</v>
@@ -5398,10 +5378,10 @@
         <v>58</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="F83" s="3">
         <f>IF(B83="common", 4, IF(B83="uncommon", 3, IF(B83="rare", 0.73878, 1)))</f>
@@ -5456,10 +5436,10 @@
         <v>77</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F84" s="3">
         <f>IF(B84="common", 4, IF(B84="uncommon", 3, IF(B84="rare", 0.73878, 1)))</f>
@@ -5514,10 +5494,10 @@
         <v>27</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F85" s="3">
         <f>IF(B85="common", 4, IF(B85="uncommon", 3, IF(B85="rare", 0.73878, 1)))</f>
@@ -5572,9 +5552,9 @@
         <v>128</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E86" s="3" t="n"/>
+        <v>0.65</v>
+      </c>
+      <c r="E86" s="3" t="inlineStr"/>
       <c r="F86" s="3">
         <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 0.73878, 1)))</f>
         <v/>
@@ -5628,9 +5608,9 @@
         <v>421</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E87" s="3" t="n"/>
+        <v>1.3</v>
+      </c>
+      <c r="E87" s="3" t="inlineStr"/>
       <c r="F87" s="3">
         <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 0.73878, 1)))</f>
         <v/>
@@ -5684,9 +5664,9 @@
         <v>712</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="E88" s="3" t="n"/>
+        <v>16.23</v>
+      </c>
+      <c r="E88" s="3" t="inlineStr"/>
       <c r="F88" s="3">
         <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 0.73878, 1)))</f>
         <v/>
@@ -5743,7 +5723,7 @@
         <v>0.09</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F89" s="3">
         <f>IF(B89="common", 4, IF(B89="uncommon", 3, IF(B89="rare", 0.73878, 1)))</f>
@@ -5798,10 +5778,10 @@
         <v>27</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F90" s="3">
         <f>IF(B90="common", 4, IF(B90="uncommon", 3, IF(B90="rare", 0.73878, 1)))</f>
@@ -5856,9 +5836,9 @@
         <v>442</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>91.09</v>
-      </c>
-      <c r="E91" s="3" t="n"/>
+        <v>80.27</v>
+      </c>
+      <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
         <f>IF(B91="common", 4, IF(B91="uncommon", 3, IF(B91="rare", 0.73878, 1)))</f>
         <v/>
@@ -5912,10 +5892,10 @@
         <v>77</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F92" s="3">
         <f>IF(B92="common", 4, IF(B92="uncommon", 3, IF(B92="rare", 0.73878, 1)))</f>
@@ -5970,10 +5950,10 @@
         <v>77</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F93" s="3">
         <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 0.73878, 1)))</f>
@@ -6028,9 +6008,9 @@
         <v>128</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E94" s="3" t="n"/>
+        <v>0.87</v>
+      </c>
+      <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3">
         <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 0.73878, 1)))</f>
         <v/>
@@ -6084,9 +6064,9 @@
         <v>421</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E95" s="3" t="n"/>
+        <v>2.76</v>
+      </c>
+      <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
         <f>IF(B95="common", 4, IF(B95="uncommon", 3, IF(B95="rare", 0.73878, 1)))</f>
         <v/>
@@ -6140,10 +6120,10 @@
         <v>77</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F96" s="3">
         <f>IF(B96="common", 4, IF(B96="uncommon", 3, IF(B96="rare", 0.73878, 1)))</f>
@@ -6201,7 +6181,7 @@
         <v>0.14</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="F97" s="3">
         <f>IF(B97="common", 4, IF(B97="uncommon", 3, IF(B97="rare", 0.73878, 1)))</f>
@@ -6256,9 +6236,9 @@
         <v>128</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E98" s="3" t="n"/>
+        <v>0.71</v>
+      </c>
+      <c r="E98" s="3" t="inlineStr"/>
       <c r="F98" s="3">
         <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 0.73878, 1)))</f>
         <v/>
@@ -6312,9 +6292,9 @@
         <v>421</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E99" s="3" t="n"/>
+        <v>3.3</v>
+      </c>
+      <c r="E99" s="3" t="inlineStr"/>
       <c r="F99" s="3">
         <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 0.73878, 1)))</f>
         <v/>
@@ -6368,9 +6348,9 @@
         <v>712</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="E100" s="3" t="n"/>
+        <v>13.77</v>
+      </c>
+      <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
         <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 0.73878, 1)))</f>
         <v/>
@@ -6427,7 +6407,7 @@
         <v>0.11</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F101" s="3">
         <f>IF(B101="common", 4, IF(B101="uncommon", 3, IF(B101="rare", 0.73878, 1)))</f>
@@ -6482,9 +6462,9 @@
         <v>442</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E102" s="3" t="n"/>
+        <v>6.64</v>
+      </c>
+      <c r="E102" s="3" t="inlineStr"/>
       <c r="F102" s="3">
         <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 0.73878, 1)))</f>
         <v/>
@@ -6538,10 +6518,10 @@
         <v>27</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F103" s="3">
         <f>IF(B103="common", 4, IF(B103="uncommon", 3, IF(B103="rare", 0.73878, 1)))</f>
@@ -6596,9 +6576,9 @@
         <v>442</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="E104" s="3" t="n"/>
+        <v>5.15</v>
+      </c>
+      <c r="E104" s="3" t="inlineStr"/>
       <c r="F104" s="3">
         <f>IF(B104="common", 4, IF(B104="uncommon", 3, IF(B104="rare", 0.73878, 1)))</f>
         <v/>
@@ -6652,9 +6632,9 @@
         <v>128</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E105" s="3" t="n"/>
+        <v>0.96</v>
+      </c>
+      <c r="E105" s="3" t="inlineStr"/>
       <c r="F105" s="3">
         <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 0.73878, 1)))</f>
         <v/>
@@ -6708,9 +6688,9 @@
         <v>421</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E106" s="3" t="n"/>
+        <v>2.22</v>
+      </c>
+      <c r="E106" s="3" t="inlineStr"/>
       <c r="F106" s="3">
         <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 0.73878, 1)))</f>
         <v/>
@@ -6764,9 +6744,9 @@
         <v>712</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="E107" s="3" t="n"/>
+        <v>23.06</v>
+      </c>
+      <c r="E107" s="3" t="inlineStr"/>
       <c r="F107" s="3">
         <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 0.73878, 1)))</f>
         <v/>
@@ -6820,9 +6800,9 @@
         <v>576</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E108" s="3" t="n"/>
+        <v>4.09</v>
+      </c>
+      <c r="E108" s="3" t="inlineStr"/>
       <c r="F108" s="3">
         <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 0.73878, 1)))</f>
         <v/>
@@ -6879,7 +6859,7 @@
         <v>0.13</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F109" s="3">
         <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 0.73878, 1)))</f>
@@ -6934,10 +6914,10 @@
         <v>77</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F110" s="3">
         <f>IF(B110="common", 4, IF(B110="uncommon", 3, IF(B110="rare", 0.73878, 1)))</f>
@@ -6992,9 +6972,9 @@
         <v>442</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="E111" s="3" t="n"/>
+        <v>11.5</v>
+      </c>
+      <c r="E111" s="3" t="inlineStr"/>
       <c r="F111" s="3">
         <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 0.73878, 1)))</f>
         <v/>
@@ -7048,10 +7028,10 @@
         <v>27</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F112" s="3">
         <f>IF(B112="common", 4, IF(B112="uncommon", 3, IF(B112="rare", 0.73878, 1)))</f>
@@ -7106,10 +7086,10 @@
         <v>58</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F113" s="3">
         <f>IF(B113="common", 4, IF(B113="uncommon", 3, IF(B113="rare", 0.73878, 1)))</f>
@@ -7167,7 +7147,7 @@
         <v>0.05</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="F114" s="3">
         <f>IF(B114="common", 4, IF(B114="uncommon", 3, IF(B114="rare", 0.73878, 1)))</f>
@@ -7222,9 +7202,9 @@
         <v>421</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E115" s="3" t="n"/>
+        <v>1.46</v>
+      </c>
+      <c r="E115" s="3" t="inlineStr"/>
       <c r="F115" s="3">
         <f>IF(B115="common", 4, IF(B115="uncommon", 3, IF(B115="rare", 0.73878, 1)))</f>
         <v/>
@@ -7278,10 +7258,10 @@
         <v>27</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F116" s="3">
         <f>IF(B116="common", 4, IF(B116="uncommon", 3, IF(B116="rare", 0.73878, 1)))</f>
@@ -7336,10 +7316,10 @@
         <v>77</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F117" s="3">
         <f>IF(B117="common", 4, IF(B117="uncommon", 3, IF(B117="rare", 0.73878, 1)))</f>
@@ -7394,10 +7374,10 @@
         <v>27</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="F118" s="3">
         <f>IF(B118="common", 4, IF(B118="uncommon", 3, IF(B118="rare", 0.73878, 1)))</f>
@@ -7452,10 +7432,10 @@
         <v>77</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F119" s="3">
         <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 0.73878, 1)))</f>
@@ -7510,9 +7490,9 @@
         <v>442</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="E120" s="3" t="n"/>
+        <v>12.03</v>
+      </c>
+      <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
         <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 0.73878, 1)))</f>
         <v/>
@@ -7566,10 +7546,10 @@
         <v>58</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="F121" s="3">
         <f>IF(B121="common", 4, IF(B121="uncommon", 3, IF(B121="rare", 0.73878, 1)))</f>
@@ -7624,9 +7604,9 @@
         <v>576</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="E122" s="3" t="n"/>
+        <v>3.22</v>
+      </c>
+      <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
         <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 0.73878, 1)))</f>
         <v/>
@@ -7680,10 +7660,10 @@
         <v>77</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F123" s="3">
         <f>IF(B123="common", 4, IF(B123="uncommon", 3, IF(B123="rare", 0.73878, 1)))</f>
@@ -7738,9 +7718,9 @@
         <v>442</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E124" s="3" t="n"/>
+        <v>13.98</v>
+      </c>
+      <c r="E124" s="3" t="inlineStr"/>
       <c r="F124" s="3">
         <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 0.73878, 1)))</f>
         <v/>
@@ -7794,7 +7774,7 @@
         <v>77</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E125" s="3" t="n">
         <v>0.14</v>
@@ -7852,9 +7832,9 @@
         <v>442</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E126" s="3" t="n"/>
+        <v>16.06</v>
+      </c>
+      <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="3">
         <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 0.73878, 1)))</f>
         <v/>
@@ -7908,10 +7888,10 @@
         <v>58</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E127" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F127" s="3">
         <f>IF(B127="common", 4, IF(B127="uncommon", 3, IF(B127="rare", 0.73878, 1)))</f>
@@ -7968,7 +7948,7 @@
       <c r="D128" s="3" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E128" s="3" t="n"/>
+      <c r="E128" s="3" t="inlineStr"/>
       <c r="F128" s="3">
         <f>IF(B128="common", 4, IF(B128="uncommon", 3, IF(B128="rare", 0.73878, 1)))</f>
         <v/>
@@ -8022,9 +8002,9 @@
         <v>421</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E129" s="3" t="n"/>
+        <v>7.56</v>
+      </c>
+      <c r="E129" s="3" t="inlineStr"/>
       <c r="F129" s="3">
         <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 0.73878, 1)))</f>
         <v/>
@@ -8078,10 +8058,10 @@
         <v>58</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E130" s="3" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="F130" s="3">
         <f>IF(B130="common", 4, IF(B130="uncommon", 3, IF(B130="rare", 0.73878, 1)))</f>
@@ -8136,10 +8116,10 @@
         <v>58</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F131" s="3">
         <f>IF(B131="common", 4, IF(B131="uncommon", 3, IF(B131="rare", 0.73878, 1)))</f>
@@ -8194,9 +8174,9 @@
         <v>421</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E132" s="3" t="n"/>
+        <v>2.22</v>
+      </c>
+      <c r="E132" s="3" t="inlineStr"/>
       <c r="F132" s="3">
         <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 0.73878, 1)))</f>
         <v/>
@@ -8250,9 +8230,9 @@
         <v>712</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E133" s="3" t="n"/>
+        <v>6.72</v>
+      </c>
+      <c r="E133" s="3" t="inlineStr"/>
       <c r="F133" s="3">
         <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 0.73878, 1)))</f>
         <v/>
@@ -8306,9 +8286,9 @@
         <v>128</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="E134" s="3" t="n"/>
+        <v>1.69</v>
+      </c>
+      <c r="E134" s="3" t="inlineStr"/>
       <c r="F134" s="3">
         <f>IF(B134="common", 4, IF(B134="uncommon", 3, IF(B134="rare", 0.73878, 1)))</f>
         <v/>
@@ -8362,10 +8342,10 @@
         <v>77</v>
       </c>
       <c r="D135" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E135" s="3" t="n">
         <v>0.06</v>
-      </c>
-      <c r="E135" s="3" t="n">
-        <v>0.12</v>
       </c>
       <c r="F135" s="3">
         <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 0.73878, 1)))</f>
@@ -8420,7 +8400,7 @@
         <v>58</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E136" s="3" t="n">
         <v>0.13</v>
@@ -8478,9 +8458,9 @@
         <v>442</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E137" s="3" t="n"/>
+        <v>5.26</v>
+      </c>
+      <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
         <f>IF(B137="common", 4, IF(B137="uncommon", 3, IF(B137="rare", 0.73878, 1)))</f>
         <v/>
@@ -8534,10 +8514,10 @@
         <v>27</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="F138" s="3">
         <f>IF(B138="common", 4, IF(B138="uncommon", 3, IF(B138="rare", 0.73878, 1)))</f>
@@ -8592,10 +8572,10 @@
         <v>77</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F139" s="3">
         <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 0.73878, 1)))</f>
@@ -8650,7 +8630,7 @@
         <v>58</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E140" s="3" t="n">
         <v>0.17</v>
@@ -8708,9 +8688,9 @@
         <v>442</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="E141" s="3" t="n"/>
+        <v>11.63</v>
+      </c>
+      <c r="E141" s="3" t="inlineStr"/>
       <c r="F141" s="3">
         <f>IF(B141="common", 4, IF(B141="uncommon", 3, IF(B141="rare", 0.73878, 1)))</f>
         <v/>
@@ -8764,10 +8744,10 @@
         <v>77</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F142" s="3">
         <f>IF(B142="common", 4, IF(B142="uncommon", 3, IF(B142="rare", 0.73878, 1)))</f>
@@ -8822,9 +8802,9 @@
         <v>442</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="E143" s="3" t="n"/>
+        <v>27.31</v>
+      </c>
+      <c r="E143" s="3" t="inlineStr"/>
       <c r="F143" s="3">
         <f>IF(B143="common", 4, IF(B143="uncommon", 3, IF(B143="rare", 0.73878, 1)))</f>
         <v/>
@@ -8878,7 +8858,7 @@
         <v>27</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="E144" s="3" t="n">
         <v>0.19</v>
@@ -8936,9 +8916,9 @@
         <v>442</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="E145" s="3" t="n"/>
+        <v>32.28</v>
+      </c>
+      <c r="E145" s="3" t="inlineStr"/>
       <c r="F145" s="3">
         <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 0.73878, 1)))</f>
         <v/>
@@ -8995,7 +8975,7 @@
         <v>0.05</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F146" s="3">
         <f>IF(B146="common", 4, IF(B146="uncommon", 3, IF(B146="rare", 0.73878, 1)))</f>
@@ -9050,10 +9030,10 @@
         <v>77</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F147" s="3">
         <f>IF(B147="common", 4, IF(B147="uncommon", 3, IF(B147="rare", 0.73878, 1)))</f>
@@ -9108,10 +9088,10 @@
         <v>77</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="F148" s="3">
         <f>IF(B148="common", 4, IF(B148="uncommon", 3, IF(B148="rare", 0.73878, 1)))</f>
@@ -9166,10 +9146,10 @@
         <v>77</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F149" s="3">
         <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 0.73878, 1)))</f>
@@ -9227,7 +9207,7 @@
         <v>0.04</v>
       </c>
       <c r="E150" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F150" s="3">
         <f>IF(B150="common", 4, IF(B150="uncommon", 3, IF(B150="rare", 0.73878, 1)))</f>
@@ -9282,10 +9262,10 @@
         <v>58</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F151" s="3">
         <f>IF(B151="common", 4, IF(B151="uncommon", 3, IF(B151="rare", 0.73878, 1)))</f>
@@ -9340,9 +9320,9 @@
         <v>421</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="E152" s="3" t="n"/>
+        <v>1.17</v>
+      </c>
+      <c r="E152" s="3" t="inlineStr"/>
       <c r="F152" s="3">
         <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 0.73878, 1)))</f>
         <v/>
@@ -9396,10 +9376,10 @@
         <v>77</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F153" s="3">
         <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 0.73878, 1)))</f>
@@ -9454,7 +9434,7 @@
         <v>77</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E154" s="3" t="n">
         <v>0.08</v>
@@ -9512,10 +9492,10 @@
         <v>77</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F155" s="3">
         <f>IF(B155="common", 4, IF(B155="uncommon", 3, IF(B155="rare", 0.73878, 1)))</f>
@@ -9573,7 +9553,7 @@
         <v>0.05</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F156" s="3">
         <f>IF(B156="common", 4, IF(B156="uncommon", 3, IF(B156="rare", 0.73878, 1)))</f>
@@ -9628,10 +9608,10 @@
         <v>58</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F157" s="3">
         <f>IF(B157="common", 4, IF(B157="uncommon", 3, IF(B157="rare", 0.73878, 1)))</f>
@@ -9686,10 +9666,10 @@
         <v>77</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F158" s="3">
         <f>IF(B158="common", 4, IF(B158="uncommon", 3, IF(B158="rare", 0.73878, 1)))</f>
@@ -9744,10 +9724,10 @@
         <v>58</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F159" s="3">
         <f>IF(B159="common", 4, IF(B159="uncommon", 3, IF(B159="rare", 0.73878, 1)))</f>
@@ -9802,10 +9782,10 @@
         <v>27</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="F160" s="3">
         <f>IF(B160="common", 4, IF(B160="uncommon", 3, IF(B160="rare", 0.73878, 1)))</f>
@@ -9860,10 +9840,10 @@
         <v>77</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E161" s="3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F161" s="3">
         <f>IF(B161="common", 4, IF(B161="uncommon", 3, IF(B161="rare", 0.73878, 1)))</f>
@@ -9918,10 +9898,10 @@
         <v>77</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F162" s="3">
         <f>IF(B162="common", 4, IF(B162="uncommon", 3, IF(B162="rare", 0.73878, 1)))</f>
@@ -9976,10 +9956,10 @@
         <v>77</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F163" s="3">
         <f>IF(B163="common", 4, IF(B163="uncommon", 3, IF(B163="rare", 0.73878, 1)))</f>
@@ -10037,7 +10017,7 @@
         <v>0.05</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F164" s="3">
         <f>IF(B164="common", 4, IF(B164="uncommon", 3, IF(B164="rare", 0.73878, 1)))</f>
@@ -10092,9 +10072,9 @@
         <v>421</v>
       </c>
       <c r="D165" s="3" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E165" s="3" t="n"/>
+        <v>3.52</v>
+      </c>
+      <c r="E165" s="3" t="inlineStr"/>
       <c r="F165" s="3">
         <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 0.73878, 1)))</f>
         <v/>
@@ -10148,9 +10128,9 @@
         <v>712</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="E166" s="3" t="n"/>
+        <v>12.73</v>
+      </c>
+      <c r="E166" s="3" t="inlineStr"/>
       <c r="F166" s="3">
         <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 0.73878, 1)))</f>
         <v/>
@@ -10207,7 +10187,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F167" s="3">
         <f>IF(B167="common", 4, IF(B167="uncommon", 3, IF(B167="rare", 0.73878, 1)))</f>
@@ -10262,9 +10242,9 @@
         <v>442</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="E168" s="3" t="n"/>
+        <v>25.1</v>
+      </c>
+      <c r="E168" s="3" t="inlineStr"/>
       <c r="F168" s="3">
         <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 0.73878, 1)))</f>
         <v/>
@@ -10318,10 +10298,10 @@
         <v>77</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F169" s="3">
         <f>IF(B169="common", 4, IF(B169="uncommon", 3, IF(B169="rare", 0.73878, 1)))</f>
@@ -10376,10 +10356,10 @@
         <v>27</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="F170" s="3">
         <f>IF(B170="common", 4, IF(B170="uncommon", 3, IF(B170="rare", 0.73878, 1)))</f>
@@ -10434,9 +10414,9 @@
         <v>442</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E171" s="3" t="n"/>
+        <v>7.82</v>
+      </c>
+      <c r="E171" s="3" t="inlineStr"/>
       <c r="F171" s="3">
         <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 0.73878, 1)))</f>
         <v/>
@@ -10490,10 +10470,10 @@
         <v>77</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="F172" s="3">
         <f>IF(B172="common", 4, IF(B172="uncommon", 3, IF(B172="rare", 0.73878, 1)))</f>
@@ -10548,7 +10528,7 @@
         <v>58</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E173" s="3" t="n">
         <v>0.22</v>
@@ -10606,9 +10586,9 @@
         <v>421</v>
       </c>
       <c r="D174" s="3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E174" s="3" t="n"/>
+        <v>3.61</v>
+      </c>
+      <c r="E174" s="3" t="inlineStr"/>
       <c r="F174" s="3">
         <f>IF(B174="common", 4, IF(B174="uncommon", 3, IF(B174="rare", 0.73878, 1)))</f>
         <v/>
@@ -10662,9 +10642,9 @@
         <v>712</v>
       </c>
       <c r="D175" s="3" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="E175" s="3" t="n"/>
+        <v>7.7</v>
+      </c>
+      <c r="E175" s="3" t="inlineStr"/>
       <c r="F175" s="3">
         <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 0.73878, 1)))</f>
         <v/>
@@ -10718,10 +10698,10 @@
         <v>58</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="F176" s="3">
         <f>IF(B176="common", 4, IF(B176="uncommon", 3, IF(B176="rare", 0.73878, 1)))</f>
@@ -10776,9 +10756,9 @@
         <v>421</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="E177" s="3" t="n"/>
+        <v>4.05</v>
+      </c>
+      <c r="E177" s="3" t="inlineStr"/>
       <c r="F177" s="3">
         <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 0.73878, 1)))</f>
         <v/>
@@ -10832,9 +10812,9 @@
         <v>712</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E178" s="3" t="n"/>
+        <v>8.81</v>
+      </c>
+      <c r="E178" s="3" t="inlineStr"/>
       <c r="F178" s="3">
         <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 0.73878, 1)))</f>
         <v/>
@@ -10891,7 +10871,7 @@
         <v>0.06</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F179" s="3">
         <f>IF(B179="common", 4, IF(B179="uncommon", 3, IF(B179="rare", 0.73878, 1)))</f>
@@ -10946,10 +10926,10 @@
         <v>77</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F180" s="3">
         <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 0.73878, 1)))</f>
@@ -11004,10 +10984,10 @@
         <v>77</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E181" s="3" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="F181" s="3">
         <f>IF(B181="common", 4, IF(B181="uncommon", 3, IF(B181="rare", 0.73878, 1)))</f>
@@ -11062,9 +11042,9 @@
         <v>576</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E182" s="3" t="n"/>
+        <v>3.15</v>
+      </c>
+      <c r="E182" s="3" t="inlineStr"/>
       <c r="F182" s="3">
         <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 0.73878, 1)))</f>
         <v/>
@@ -11118,10 +11098,10 @@
         <v>58</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F183" s="3">
         <f>IF(B183="common", 4, IF(B183="uncommon", 3, IF(B183="rare", 0.73878, 1)))</f>
@@ -11176,9 +11156,9 @@
         <v>421</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E184" s="3" t="n"/>
+        <v>2.13</v>
+      </c>
+      <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
         <f>IF(B184="common", 4, IF(B184="uncommon", 3, IF(B184="rare", 0.73878, 1)))</f>
         <v/>
@@ -11232,9 +11212,9 @@
         <v>712</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E185" s="3" t="n"/>
+        <v>7.54</v>
+      </c>
+      <c r="E185" s="3" t="inlineStr"/>
       <c r="F185" s="3">
         <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 0.73878, 1)))</f>
         <v/>
@@ -11288,9 +11268,9 @@
         <v>128</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" s="3" t="n"/>
+        <v>0.91</v>
+      </c>
+      <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
         <f>IF(B186="common", 4, IF(B186="uncommon", 3, IF(B186="rare", 0.73878, 1)))</f>
         <v/>
@@ -11344,9 +11324,9 @@
         <v>421</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="E187" s="3" t="n"/>
+        <v>3.42</v>
+      </c>
+      <c r="E187" s="3" t="inlineStr"/>
       <c r="F187" s="3">
         <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 0.73878, 1)))</f>
         <v/>
@@ -11400,9 +11380,9 @@
         <v>712</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="E188" s="3" t="n"/>
+        <v>36.6</v>
+      </c>
+      <c r="E188" s="3" t="inlineStr"/>
       <c r="F188" s="3">
         <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 0.73878, 1)))</f>
         <v/>
@@ -11456,9 +11436,9 @@
         <v>576</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="E189" s="3" t="n"/>
+        <v>5.41</v>
+      </c>
+      <c r="E189" s="3" t="inlineStr"/>
       <c r="F189" s="3">
         <f>IF(B189="common", 4, IF(B189="uncommon", 3, IF(B189="rare", 0.73878, 1)))</f>
         <v/>
@@ -11512,10 +11492,10 @@
         <v>58</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="F190" s="3">
         <f>IF(B190="common", 4, IF(B190="uncommon", 3, IF(B190="rare", 0.73878, 1)))</f>
@@ -11570,9 +11550,9 @@
         <v>421</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="E191" s="3" t="n"/>
+        <v>1.11</v>
+      </c>
+      <c r="E191" s="3" t="inlineStr"/>
       <c r="F191" s="3">
         <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 0.73878, 1)))</f>
         <v/>
@@ -11626,9 +11606,9 @@
         <v>128</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E192" s="3" t="n"/>
+        <v>0.7</v>
+      </c>
+      <c r="E192" s="3" t="inlineStr"/>
       <c r="F192" s="3">
         <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 0.73878, 1)))</f>
         <v/>
@@ -11682,9 +11662,9 @@
         <v>421</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E193" s="3" t="n"/>
+        <v>1.68</v>
+      </c>
+      <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
         <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 0.73878, 1)))</f>
         <v/>
@@ -11738,9 +11718,9 @@
         <v>712</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E194" s="3" t="n"/>
+        <v>6.99</v>
+      </c>
+      <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
         <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 0.73878, 1)))</f>
         <v/>
@@ -11794,7 +11774,7 @@
         <v>58</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E195" s="3" t="n">
         <v>0.24</v>
@@ -11852,7 +11832,7 @@
         <v>77</v>
       </c>
       <c r="D196" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E196" s="3" t="n">
         <v>0.09</v>
@@ -11913,7 +11893,7 @@
         <v>0.06</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F197" s="3">
         <f>IF(B197="common", 4, IF(B197="uncommon", 3, IF(B197="rare", 0.73878, 1)))</f>
@@ -11968,9 +11948,9 @@
         <v>421</v>
       </c>
       <c r="D198" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E198" s="3" t="n"/>
+        <v>1.34</v>
+      </c>
+      <c r="E198" s="3" t="inlineStr"/>
       <c r="F198" s="3">
         <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 0.73878, 1)))</f>
         <v/>
@@ -12027,7 +12007,7 @@
         <v>0.05</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F199" s="3">
         <f>IF(B199="common", 4, IF(B199="uncommon", 3, IF(B199="rare", 0.73878, 1)))</f>
@@ -12143,7 +12123,7 @@
         <v>0.05</v>
       </c>
       <c r="E201" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F201" s="3">
         <f>IF(B201="common", 4, IF(B201="uncommon", 3, IF(B201="rare", 0.73878, 1)))</f>
@@ -12198,9 +12178,9 @@
         <v>128</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E202" s="3" t="n"/>
+        <v>0.73</v>
+      </c>
+      <c r="E202" s="3" t="inlineStr"/>
       <c r="F202" s="3">
         <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 0.73878, 1)))</f>
         <v/>
@@ -12254,7 +12234,7 @@
         <v>58</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E203" s="3" t="n">
         <v>0.21</v>
@@ -12312,9 +12292,9 @@
         <v>442</v>
       </c>
       <c r="D204" s="3" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="E204" s="3" t="n"/>
+        <v>4.45</v>
+      </c>
+      <c r="E204" s="3" t="inlineStr"/>
       <c r="F204" s="3">
         <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 0.73878, 1)))</f>
         <v/>
@@ -12371,7 +12351,7 @@
         <v>0.11</v>
       </c>
       <c r="E205" s="3" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F205" s="3">
         <f>IF(B205="common", 4, IF(B205="uncommon", 3, IF(B205="rare", 0.73878, 1)))</f>
@@ -12426,10 +12406,10 @@
         <v>77</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E206" s="3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F206" s="3">
         <f>IF(B206="common", 4, IF(B206="uncommon", 3, IF(B206="rare", 0.73878, 1)))</f>
@@ -12484,9 +12464,9 @@
         <v>442</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E207" s="3" t="n"/>
+        <v>7.65</v>
+      </c>
+      <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="3">
         <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 0.73878, 1)))</f>
         <v/>
@@ -12540,10 +12520,10 @@
         <v>77</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E208" s="3" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F208" s="3">
         <f>IF(B208="common", 4, IF(B208="uncommon", 3, IF(B208="rare", 0.73878, 1)))</f>
@@ -12598,10 +12578,10 @@
         <v>27</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E209" s="3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F209" s="3">
         <f>IF(B209="common", 4, IF(B209="uncommon", 3, IF(B209="rare", 0.73878, 1)))</f>
@@ -12656,9 +12636,9 @@
         <v>442</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E210" s="3" t="n"/>
+        <v>26.02</v>
+      </c>
+      <c r="E210" s="3" t="inlineStr"/>
       <c r="F210" s="3">
         <f>IF(B210="common", 4, IF(B210="uncommon", 3, IF(B210="rare", 0.73878, 1)))</f>
         <v/>
@@ -12715,7 +12695,7 @@
         <v>0.08</v>
       </c>
       <c r="E211" s="3" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="F211" s="3">
         <f>IF(B211="common", 4, IF(B211="uncommon", 3, IF(B211="rare", 0.73878, 1)))</f>
@@ -12747,7 +12727,7 @@
         <v>0.06</v>
       </c>
       <c r="E212" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F212" s="3">
         <f>IF(B212="common", 4, IF(B212="uncommon", 3, IF(B212="rare", 0.73878, 1)))</f>
@@ -12782,10 +12762,10 @@
         <v>77</v>
       </c>
       <c r="D213" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E213" s="3" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F213" s="3">
         <f>IF(B213="common", 4, IF(B213="uncommon", 3, IF(B213="rare", 0.73878, 1)))</f>
@@ -12814,9 +12794,9 @@
         <v>442</v>
       </c>
       <c r="D214" s="3" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="E214" s="3" t="n"/>
+        <v>11.82</v>
+      </c>
+      <c r="E214" s="3" t="inlineStr"/>
       <c r="F214" s="3">
         <f>IF(B214="common", 4, IF(B214="uncommon", 3, IF(B214="rare", 0.73878, 1)))</f>
         <v/>
@@ -12844,10 +12824,10 @@
         <v>77</v>
       </c>
       <c r="D215" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E215" s="3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F215" s="3">
         <f>IF(B215="common", 4, IF(B215="uncommon", 3, IF(B215="rare", 0.73878, 1)))</f>
@@ -12879,7 +12859,7 @@
         <v>0.13</v>
       </c>
       <c r="E216" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F216" s="3">
         <f>IF(B216="common", 4, IF(B216="uncommon", 3, IF(B216="rare", 0.73878, 1)))</f>
@@ -12908,9 +12888,9 @@
         <v>128</v>
       </c>
       <c r="D217" s="3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E217" s="3" t="n"/>
+        <v>0.7</v>
+      </c>
+      <c r="E217" s="3" t="inlineStr"/>
       <c r="F217" s="3">
         <f>IF(B217="common", 4, IF(B217="uncommon", 3, IF(B217="rare", 0.73878, 1)))</f>
         <v/>
@@ -12938,9 +12918,9 @@
         <v>421</v>
       </c>
       <c r="D218" s="3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E218" s="3" t="n"/>
+        <v>1.62</v>
+      </c>
+      <c r="E218" s="3" t="inlineStr"/>
       <c r="F218" s="3">
         <f>IF(B218="common", 4, IF(B218="uncommon", 3, IF(B218="rare", 0.73878, 1)))</f>
         <v/>
@@ -12968,9 +12948,9 @@
         <v>712</v>
       </c>
       <c r="D219" s="3" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="E219" s="3" t="n"/>
+        <v>14.63</v>
+      </c>
+      <c r="E219" s="3" t="inlineStr"/>
       <c r="F219" s="3">
         <f>IF(B219="common", 4, IF(B219="uncommon", 3, IF(B219="rare", 0.73878, 1)))</f>
         <v/>
@@ -13030,7 +13010,7 @@
         <v>58</v>
       </c>
       <c r="D221" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E221" s="3" t="n">
         <v>0.14</v>
@@ -13062,10 +13042,10 @@
         <v>58</v>
       </c>
       <c r="D222" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E222" s="3" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="F222" s="3">
         <f>IF(B222="common", 4, IF(B222="uncommon", 3, IF(B222="rare", 0.73878, 1)))</f>
@@ -13094,10 +13074,10 @@
         <v>58</v>
       </c>
       <c r="D223" s="3" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="E223" s="3" t="n">
-        <v>1.36</v>
+        <v>0.9</v>
       </c>
       <c r="F223" s="3">
         <f>IF(B223="common", 4, IF(B223="uncommon", 3, IF(B223="rare", 0.73878, 1)))</f>
@@ -13126,10 +13106,10 @@
         <v>58</v>
       </c>
       <c r="D224" s="3" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="E224" s="3" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="F224" s="3">
         <f>IF(B224="common", 4, IF(B224="uncommon", 3, IF(B224="rare", 0.73878, 1)))</f>
@@ -13193,7 +13173,7 @@
         <v>0.09</v>
       </c>
       <c r="E226" s="3" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="F226" s="3">
         <f>IF(B226="common", 4, IF(B226="uncommon", 3, IF(B226="rare", 0.73878, 1)))</f>
@@ -13222,7 +13202,7 @@
         <v>27</v>
       </c>
       <c r="D227" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E227" s="3" t="n">
         <v>0.17</v>
@@ -13254,10 +13234,10 @@
         <v>77</v>
       </c>
       <c r="D228" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E228" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F228" s="3">
         <f>IF(B228="common", 4, IF(B228="uncommon", 3, IF(B228="rare", 0.73878, 1)))</f>
@@ -13286,10 +13266,10 @@
         <v>77</v>
       </c>
       <c r="D229" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E229" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F229" s="3">
         <f>IF(B229="common", 4, IF(B229="uncommon", 3, IF(B229="rare", 0.73878, 1)))</f>
@@ -13318,10 +13298,10 @@
         <v>58</v>
       </c>
       <c r="D230" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E230" s="3" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F230" s="3">
         <f>IF(B230="common", 4, IF(B230="uncommon", 3, IF(B230="rare", 0.73878, 1)))</f>
@@ -13350,10 +13330,10 @@
         <v>77</v>
       </c>
       <c r="D231" s="3" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E231" s="3" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F231" s="3">
         <f>IF(B231="common", 4, IF(B231="uncommon", 3, IF(B231="rare", 0.73878, 1)))</f>
@@ -13382,10 +13362,10 @@
         <v>77</v>
       </c>
       <c r="D232" s="3" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="E232" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F232" s="3">
         <f>IF(B232="common", 4, IF(B232="uncommon", 3, IF(B232="rare", 0.73878, 1)))</f>
@@ -13446,10 +13426,10 @@
         <v>58</v>
       </c>
       <c r="D234" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E234" s="3" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="F234" s="3">
         <f>IF(B234="common", 4, IF(B234="uncommon", 3, IF(B234="rare", 0.73878, 1)))</f>
@@ -13478,9 +13458,9 @@
         <v>442</v>
       </c>
       <c r="D235" s="3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E235" s="3" t="n"/>
+        <v>5.63</v>
+      </c>
+      <c r="E235" s="3" t="inlineStr"/>
       <c r="F235" s="3">
         <f>IF(B235="common", 4, IF(B235="uncommon", 3, IF(B235="rare", 0.73878, 1)))</f>
         <v/>
@@ -13508,10 +13488,10 @@
         <v>77</v>
       </c>
       <c r="D236" s="3" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E236" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F236" s="3">
         <f>IF(B236="common", 4, IF(B236="uncommon", 3, IF(B236="rare", 0.73878, 1)))</f>
@@ -13540,9 +13520,9 @@
         <v>128</v>
       </c>
       <c r="D237" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E237" s="3" t="n"/>
+        <v>0.62</v>
+      </c>
+      <c r="E237" s="3" t="inlineStr"/>
       <c r="F237" s="3">
         <f>IF(B237="common", 4, IF(B237="uncommon", 3, IF(B237="rare", 0.73878, 1)))</f>
         <v/>
@@ -13570,9 +13550,9 @@
         <v>421</v>
       </c>
       <c r="D238" s="3" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="E238" s="3" t="n"/>
+        <v>3.07</v>
+      </c>
+      <c r="E238" s="3" t="inlineStr"/>
       <c r="F238" s="3">
         <f>IF(B238="common", 4, IF(B238="uncommon", 3, IF(B238="rare", 0.73878, 1)))</f>
         <v/>
@@ -13600,7 +13580,7 @@
         <v>77</v>
       </c>
       <c r="D239" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E239" s="3" t="n">
         <v>0.14</v>
@@ -13632,9 +13612,9 @@
         <v>128</v>
       </c>
       <c r="D240" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E240" s="3" t="n"/>
+        <v>0.85</v>
+      </c>
+      <c r="E240" s="3" t="inlineStr"/>
       <c r="F240" s="3">
         <f>IF(B240="common", 4, IF(B240="uncommon", 3, IF(B240="rare", 0.73878, 1)))</f>
         <v/>
@@ -13662,9 +13642,9 @@
         <v>421</v>
       </c>
       <c r="D241" s="3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E241" s="3" t="n"/>
+        <v>1.98</v>
+      </c>
+      <c r="E241" s="3" t="inlineStr"/>
       <c r="F241" s="3">
         <f>IF(B241="common", 4, IF(B241="uncommon", 3, IF(B241="rare", 0.73878, 1)))</f>
         <v/>
@@ -13692,10 +13672,10 @@
         <v>58</v>
       </c>
       <c r="D242" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E242" s="3" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="F242" s="3">
         <f>IF(B242="common", 4, IF(B242="uncommon", 3, IF(B242="rare", 0.73878, 1)))</f>
@@ -13724,9 +13704,9 @@
         <v>421</v>
       </c>
       <c r="D243" s="3" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="E243" s="3" t="n"/>
+        <v>2.59</v>
+      </c>
+      <c r="E243" s="3" t="inlineStr"/>
       <c r="F243" s="3">
         <f>IF(B243="common", 4, IF(B243="uncommon", 3, IF(B243="rare", 0.73878, 1)))</f>
         <v/>
@@ -13754,9 +13734,9 @@
         <v>712</v>
       </c>
       <c r="D244" s="3" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E244" s="3" t="n"/>
+        <v>7.42</v>
+      </c>
+      <c r="E244" s="3" t="inlineStr"/>
       <c r="F244" s="3">
         <f>IF(B244="common", 4, IF(B244="uncommon", 3, IF(B244="rare", 0.73878, 1)))</f>
         <v/>
@@ -13784,10 +13764,10 @@
         <v>77</v>
       </c>
       <c r="D245" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E245" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F245" s="3">
         <f>IF(B245="common", 4, IF(B245="uncommon", 3, IF(B245="rare", 0.73878, 1)))</f>
@@ -13816,9 +13796,9 @@
         <v>442</v>
       </c>
       <c r="D246" s="3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E246" s="3" t="n"/>
+        <v>6.19</v>
+      </c>
+      <c r="E246" s="3" t="inlineStr"/>
       <c r="F246" s="3">
         <f>IF(B246="common", 4, IF(B246="uncommon", 3, IF(B246="rare", 0.73878, 1)))</f>
         <v/>
@@ -13846,10 +13826,10 @@
         <v>77</v>
       </c>
       <c r="D247" s="3" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E247" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F247" s="3">
         <f>IF(B247="common", 4, IF(B247="uncommon", 3, IF(B247="rare", 0.73878, 1)))</f>
@@ -13878,10 +13858,10 @@
         <v>58</v>
       </c>
       <c r="D248" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E248" s="3" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="F248" s="3">
         <f>IF(B248="common", 4, IF(B248="uncommon", 3, IF(B248="rare", 0.73878, 1)))</f>
@@ -13910,10 +13890,10 @@
         <v>58</v>
       </c>
       <c r="D249" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E249" s="3" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F249" s="3">
         <f>IF(B249="common", 4, IF(B249="uncommon", 3, IF(B249="rare", 0.73878, 1)))</f>
@@ -13942,9 +13922,9 @@
         <v>442</v>
       </c>
       <c r="D250" s="3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E250" s="3" t="n"/>
+        <v>5.82</v>
+      </c>
+      <c r="E250" s="3" t="inlineStr"/>
       <c r="F250" s="3">
         <f>IF(B250="common", 4, IF(B250="uncommon", 3, IF(B250="rare", 0.73878, 1)))</f>
         <v/>
@@ -13972,10 +13952,10 @@
         <v>27</v>
       </c>
       <c r="D251" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E251" s="3" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="F251" s="3">
         <f>IF(B251="common", 4, IF(B251="uncommon", 3, IF(B251="rare", 0.73878, 1)))</f>
@@ -14004,10 +13984,10 @@
         <v>77</v>
       </c>
       <c r="D252" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="E252" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F252" s="3">
         <f>IF(B252="common", 4, IF(B252="uncommon", 3, IF(B252="rare", 0.73878, 1)))</f>
@@ -14039,7 +14019,7 @@
         <v>0.09</v>
       </c>
       <c r="E253" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F253" s="3">
         <f>IF(B253="common", 4, IF(B253="uncommon", 3, IF(B253="rare", 0.73878, 1)))</f>
@@ -14068,10 +14048,10 @@
         <v>77</v>
       </c>
       <c r="D254" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E254" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F254" s="3">
         <f>IF(B254="common", 4, IF(B254="uncommon", 3, IF(B254="rare", 0.73878, 1)))</f>
@@ -14100,10 +14080,10 @@
         <v>77</v>
       </c>
       <c r="D255" s="3" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E255" s="3" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F255" s="3">
         <f>IF(B255="common", 4, IF(B255="uncommon", 3, IF(B255="rare", 0.73878, 1)))</f>
@@ -14132,7 +14112,7 @@
         <v>77</v>
       </c>
       <c r="D256" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E256" s="3" t="n">
         <v>0.12</v>
@@ -14164,9 +14144,9 @@
         <v>442</v>
       </c>
       <c r="D257" s="3" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E257" s="3" t="n"/>
+        <v>5.33</v>
+      </c>
+      <c r="E257" s="3" t="inlineStr"/>
       <c r="F257" s="3">
         <f>IF(B257="common", 4, IF(B257="uncommon", 3, IF(B257="rare", 0.73878, 1)))</f>
         <v/>
@@ -14197,7 +14177,7 @@
         <v>0.11</v>
       </c>
       <c r="E258" s="3" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="F258" s="3">
         <f>IF(B258="common", 4, IF(B258="uncommon", 3, IF(B258="rare", 0.73878, 1)))</f>
@@ -14226,10 +14206,10 @@
         <v>58</v>
       </c>
       <c r="D259" s="3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E259" s="3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="F259" s="3">
         <f>IF(B259="common", 4, IF(B259="uncommon", 3, IF(B259="rare", 0.73878, 1)))</f>
@@ -14258,10 +14238,10 @@
         <v>27</v>
       </c>
       <c r="D260" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E260" s="3" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F260" s="3">
         <f>IF(B260="common", 4, IF(B260="uncommon", 3, IF(B260="rare", 0.73878, 1)))</f>
@@ -14290,10 +14270,10 @@
         <v>77</v>
       </c>
       <c r="D261" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E261" s="3" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="E261" s="3" t="n">
-        <v>0.12</v>
       </c>
       <c r="F261" s="3">
         <f>IF(B261="common", 4, IF(B261="uncommon", 3, IF(B261="rare", 0.73878, 1)))</f>
@@ -14325,7 +14305,7 @@
         <v>0.11</v>
       </c>
       <c r="E262" s="3" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F262" s="3">
         <f>IF(B262="common", 4, IF(B262="uncommon", 3, IF(B262="rare", 0.73878, 1)))</f>
@@ -14354,9 +14334,9 @@
         <v>442</v>
       </c>
       <c r="D263" s="3" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="E263" s="3" t="n"/>
+        <v>17.22</v>
+      </c>
+      <c r="E263" s="3" t="inlineStr"/>
       <c r="F263" s="3">
         <f>IF(B263="common", 4, IF(B263="uncommon", 3, IF(B263="rare", 0.73878, 1)))</f>
         <v/>
@@ -14384,10 +14364,10 @@
         <v>27</v>
       </c>
       <c r="D264" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E264" s="3" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F264" s="3">
         <f>IF(B264="common", 4, IF(B264="uncommon", 3, IF(B264="rare", 0.73878, 1)))</f>
@@ -14416,10 +14396,10 @@
         <v>58</v>
       </c>
       <c r="D265" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E265" s="3" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F265" s="3">
         <f>IF(B265="common", 4, IF(B265="uncommon", 3, IF(B265="rare", 0.73878, 1)))</f>
@@ -14448,10 +14428,10 @@
         <v>27</v>
       </c>
       <c r="D266" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E266" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F266" s="3">
         <f>IF(B266="common", 4, IF(B266="uncommon", 3, IF(B266="rare", 0.73878, 1)))</f>
@@ -14483,7 +14463,7 @@
         <v>0.05</v>
       </c>
       <c r="E267" s="3" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="F267" s="3">
         <f>IF(B267="common", 4, IF(B267="uncommon", 3, IF(B267="rare", 0.73878, 1)))</f>
@@ -21403,307 +21383,305 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13" bestFit="1" customWidth="1" min="1" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Summary Metric</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>ev_common_total</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="9" t="n">
         <v>0.2924675324675324</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>ev_uncommon_total</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="9" t="n">
         <v>0.331551724137931</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>ev_rare_total</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="9" t="n">
         <v>0.09483950617283952</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>ev_reverse_total</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="9" t="n">
         <v>0.3494603206988607</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>ev_ace_spec_total</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>ev_pokeball_total</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="9" t="inlineStr">
         <is>
           <t>ev_master_ball_total</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="9" t="inlineStr">
         <is>
           <t>ev_IR_total</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="9" t="n">
         <v>0.9214253393665157</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="9" t="inlineStr">
         <is>
           <t>ev_SIR_total</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="9" t="n">
         <v>0.3927949438202247</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>ev_double_rare_total</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="9" t="n">
         <v>0.20359375</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
         <is>
           <t>ev_hyper_rare_total</t>
         </is>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="9" t="n">
         <v>0.06614583333333333</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>ev_ultra_rare_total</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="9" t="n">
         <v>0.2068408551068884</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>reverse_multiplier</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="9" t="n">
         <v>1.889605205381023</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>rare_multiplier</t>
         </is>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="9" t="n">
         <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="inlineStr">
+      <c r="A16" s="9" t="inlineStr">
         <is>
           <t>regular_pack_ev_contribution</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="9" t="n">
         <v>2.859119805104126</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>god_pack_ev_contribution</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>demi_god_pack_ev_contribution</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>total_manual_ev</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="9" t="n">
         <v>2.859119805104126</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>Results Metric</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>total_manual_ev</t>
         </is>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="9" t="n">
         <v>2.859119805104126</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>acutal_simulated_ev</t>
         </is>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="9" t="n">
         <v>2.9096855</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>pack_price</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="9" t="n">
         <v>6.05</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>hit_probability_percentage</t>
         </is>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="9" t="n">
         <v>28.37362152609313</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>no_hit_probability_percentage</t>
         </is>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="9" t="n">
         <v>71.62637847390687</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" s="9" t="inlineStr">
         <is>
           <t>net_value</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="9" t="n">
         <v>-3.1403145</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>opening_pack_roi</t>
         </is>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="9" t="n">
         <v>0.4809397520661157</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>opening_pack_roi_percent</t>
         </is>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="9" t="n">
         <v>-51.90602479338844</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Simulation Metric</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -21820,17 +21798,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>Top 10 Most Expensive Hits</t>
         </is>
       </c>
-      <c r="B44" s="10" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C44" s="10" t="inlineStr">
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>Effective Pull Rate</t>
         </is>
